--- a/python/Data/poll-data-qld.xlsx
+++ b/python/Data/poll-data-qld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA8085-83A3-4E93-98D8-34F005FF13D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE2CCD-5301-453D-AB16-6593F9469B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="150" windowWidth="12015" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23775" yWindow="3765" windowWidth="12570" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="17">
   <si>
     <t>MidDate</t>
   </si>
@@ -79,13 +79,19 @@
   <si>
     <t>UAP FP</t>
   </si>
+  <si>
+    <t>Morgan Phone</t>
+  </si>
+  <si>
+    <t>F2F Morgan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,13 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,23 +410,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U180"/>
+  <dimension ref="A1:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A117" activePane="bottomLeft"/>
-      <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
+      <pane ySplit="600" activePane="bottomLeft"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -432,7 +441,7 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -450,7 +459,7 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="4"/>
@@ -472,7 +481,7 @@
       <c r="C2">
         <v>59</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>33</v>
       </c>
       <c r="E2" s="4">
@@ -490,7 +499,7 @@
       <c r="I2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>12</v>
       </c>
       <c r="K2" s="4"/>
@@ -504,25 +513,25 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>38306</v>
+        <v>38078</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>52</v>
-      </c>
-      <c r="D3">
-        <v>41</v>
-      </c>
-      <c r="E3">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#N/A</v>
+        <v>61.5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2.5</v>
       </c>
       <c r="H3" t="e">
         <v>#N/A</v>
@@ -530,31 +539,39 @@
       <c r="I3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J3">
-        <v>13</v>
-      </c>
+      <c r="J3" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>38398</v>
+        <v>38139</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#N/A</v>
+        <v>65</v>
+      </c>
+      <c r="D4" s="6">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>56.5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2.5</v>
       </c>
       <c r="H4" t="e">
         <v>#N/A</v>
@@ -562,31 +579,39 @@
       <c r="I4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J4">
-        <v>11</v>
-      </c>
+      <c r="J4" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>38487</v>
+        <v>38200</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="E5" s="4">
         <v>56</v>
       </c>
-      <c r="D5">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.5</v>
       </c>
       <c r="H5" t="e">
         <v>#N/A</v>
@@ -594,60 +619,76 @@
       <c r="I5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
+      <c r="J5" s="6">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>38565</v>
+        <v>38261</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>42</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
+        <v>59.5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="H6" t="e">
         <v>#N/A</v>
       </c>
       <c r="I6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
+      <c r="J6" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>38596</v>
+        <v>38306</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="6">
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="e">
         <v>#N/A</v>
@@ -658,31 +699,31 @@
       <c r="I7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>38671</v>
+        <v>38322</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>43</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#N/A</v>
+        <v>58</v>
+      </c>
+      <c r="D8" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
       </c>
       <c r="H8" t="e">
         <v>#N/A</v>
@@ -690,31 +731,31 @@
       <c r="I8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J8">
-        <v>14</v>
+      <c r="J8" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>38764</v>
+        <v>38384</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
+        <v>59.5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>51.5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.5</v>
       </c>
       <c r="H9" t="e">
         <v>#N/A</v>
@@ -722,28 +763,28 @@
       <c r="I9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J9">
-        <v>14</v>
+      <c r="J9" s="6">
+        <v>6.5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>38852</v>
+        <v>38398</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="6">
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="e">
         <v>#N/A</v>
@@ -754,31 +795,31 @@
       <c r="I10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J10">
-        <v>16</v>
+      <c r="J10" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>38930</v>
+        <v>38443</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#N/A</v>
+        <v>61.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
       </c>
       <c r="H11" t="e">
         <v>#N/A</v>
@@ -786,28 +827,28 @@
       <c r="I11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J11">
-        <v>15</v>
+      <c r="J11" s="6">
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>38967</v>
+        <v>38487</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="D12" s="6">
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="e">
         <v>#N/A</v>
@@ -818,31 +859,31 @@
       <c r="I12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J12">
-        <v>10</v>
+      <c r="J12" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>39037</v>
+        <v>38504</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>42</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#N/A</v>
+        <v>58.5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
       </c>
       <c r="H13" t="e">
         <v>#N/A</v>
@@ -850,28 +891,28 @@
       <c r="I13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J13">
-        <v>11</v>
+      <c r="J13" s="6">
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>39217</v>
+        <v>38565</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>61</v>
-      </c>
-      <c r="D14">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" t="e">
         <v>#N/A</v>
@@ -882,31 +923,31 @@
       <c r="I14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J14">
-        <v>12</v>
+      <c r="J14" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>39240</v>
+        <v>38565</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>46</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#N/A</v>
+        <v>61.5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.5</v>
       </c>
       <c r="H15" t="e">
         <v>#N/A</v>
@@ -914,28 +955,28 @@
       <c r="I15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J15">
-        <v>6</v>
+      <c r="J15" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>39309</v>
+        <v>38596</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>59</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="e">
         <v>#N/A</v>
@@ -946,31 +987,31 @@
       <c r="I16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J16">
-        <v>12</v>
+      <c r="J16" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>39321</v>
+        <v>38626</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>58</v>
-      </c>
-      <c r="D17">
-        <v>36</v>
-      </c>
-      <c r="E17">
-        <v>52</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#N/A</v>
+        <v>56.5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>49</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2.5</v>
       </c>
       <c r="H17" t="e">
         <v>#N/A</v>
@@ -978,28 +1019,28 @@
       <c r="I17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J17">
-        <v>10</v>
+      <c r="J17" s="6">
+        <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>39345</v>
+        <v>38671</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>57</v>
-      </c>
-      <c r="D18">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43</v>
       </c>
       <c r="E18">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G18" t="e">
         <v>#N/A</v>
@@ -1010,63 +1051,63 @@
       <c r="I18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J18">
-        <v>8</v>
+      <c r="J18" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>39401</v>
+        <v>38687</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>59</v>
       </c>
-      <c r="D19">
-        <v>35</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
-      </c>
-      <c r="F19">
+      <c r="D19" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="6">
         <v>6</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J19">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>39457</v>
+        <v>38749</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>46</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#N/A</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="6">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6">
+        <v>48.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
       </c>
       <c r="H20" t="e">
         <v>#N/A</v>
@@ -1074,28 +1115,28 @@
       <c r="I20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J20">
-        <v>7</v>
+      <c r="J20" s="6">
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>39493</v>
+        <v>38764</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>60</v>
-      </c>
-      <c r="D21">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G21" t="e">
         <v>#N/A</v>
@@ -1106,31 +1147,31 @@
       <c r="I21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J21">
-        <v>10</v>
+      <c r="J21" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>39505</v>
+        <v>38808</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>61</v>
-      </c>
-      <c r="D22">
-        <v>32</v>
-      </c>
-      <c r="E22">
-        <v>52</v>
-      </c>
-      <c r="F22">
-        <v>9</v>
-      </c>
-      <c r="G22" t="e">
-        <v>#N/A</v>
+        <v>59.5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.5</v>
       </c>
       <c r="H22" t="e">
         <v>#N/A</v>
@@ -1138,28 +1179,28 @@
       <c r="I22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J22">
-        <v>7</v>
+      <c r="J22" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>39583</v>
+        <v>38852</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>55</v>
-      </c>
-      <c r="D23">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="6">
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G23" t="e">
         <v>#N/A</v>
@@ -1170,31 +1211,31 @@
       <c r="I23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J23">
-        <v>9</v>
+      <c r="J23" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>39618</v>
+        <v>38869</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>42</v>
-      </c>
-      <c r="E24">
-        <v>43</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.5</v>
       </c>
       <c r="H24" t="e">
         <v>#N/A</v>
@@ -1202,28 +1243,28 @@
       <c r="I24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J24">
-        <v>6</v>
+      <c r="J24" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>39661</v>
+        <v>38930</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>53</v>
-      </c>
-      <c r="D25">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D25" s="6">
+        <v>38</v>
       </c>
       <c r="E25">
-        <v>44</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="G25" t="e">
         <v>#N/A</v>
@@ -1234,31 +1275,31 @@
       <c r="I25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J25" t="e">
-        <v>#N/A</v>
+      <c r="J25" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>39675</v>
+        <v>38930</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>51</v>
-      </c>
-      <c r="D26">
-        <v>38</v>
-      </c>
-      <c r="E26">
-        <v>43</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#N/A</v>
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
       </c>
       <c r="H26" t="e">
         <v>#N/A</v>
@@ -1266,28 +1307,28 @@
       <c r="I26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J26">
-        <v>11</v>
+      <c r="J26" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>39719</v>
+        <v>38967</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>52</v>
-      </c>
-      <c r="D27">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="D27" s="6">
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>43</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#N/A</v>
+        <v>48</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
       </c>
       <c r="G27" t="e">
         <v>#N/A</v>
@@ -1298,31 +1339,31 @@
       <c r="I27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J27" t="e">
-        <v>#N/A</v>
+      <c r="J27" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>39767</v>
+        <v>38967</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>57</v>
-      </c>
-      <c r="D28">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F28">
         <v>8</v>
       </c>
-      <c r="G28" t="e">
-        <v>#N/A</v>
+      <c r="G28">
+        <v>0.5</v>
       </c>
       <c r="H28" t="e">
         <v>#N/A</v>
@@ -1330,28 +1371,28 @@
       <c r="I28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J28">
-        <v>10</v>
+      <c r="J28" s="6">
+        <v>7.5</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>39845</v>
+        <v>39037</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>53</v>
-      </c>
-      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="D29" s="6">
+        <v>35</v>
+      </c>
+      <c r="E29">
         <v>42</v>
       </c>
-      <c r="E29">
-        <v>41</v>
-      </c>
       <c r="F29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G29" t="e">
         <v>#N/A</v>
@@ -1362,28 +1403,28 @@
       <c r="I29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J29">
-        <v>10</v>
+      <c r="J29" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>39876</v>
+        <v>39217</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>49</v>
-      </c>
-      <c r="D30">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="D30" s="6">
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30" t="e">
         <v>#N/A</v>
@@ -1394,28 +1435,28 @@
       <c r="I30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J30">
-        <v>8</v>
+      <c r="J30" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>39891</v>
+        <v>39240</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>49.9</v>
-      </c>
-      <c r="D31">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="D31" s="6">
+        <v>37</v>
       </c>
       <c r="E31">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G31" t="e">
         <v>#N/A</v>
@@ -1426,28 +1467,28 @@
       <c r="I31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J31">
-        <v>8.5</v>
+      <c r="J31" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>39983</v>
+        <v>39309</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="D32" s="6">
+        <v>33</v>
       </c>
       <c r="E32">
-        <v>36</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
       </c>
       <c r="G32" t="e">
         <v>#N/A</v>
@@ -1458,28 +1499,28 @@
       <c r="I32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J32" t="e">
-        <v>#N/A</v>
+      <c r="J32" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>40025</v>
+        <v>39321</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>41</v>
-      </c>
-      <c r="D33">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="6">
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G33" t="e">
         <v>#N/A</v>
@@ -1490,28 +1531,28 @@
       <c r="I33" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>40068</v>
+        <v>39345</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34">
-        <v>46</v>
-      </c>
-      <c r="D34">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="D34" s="6">
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>35</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#N/A</v>
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
       </c>
       <c r="G34" t="e">
         <v>#N/A</v>
@@ -1522,28 +1563,28 @@
       <c r="I34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J34" t="e">
-        <v>#N/A</v>
+      <c r="J34" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>40116</v>
+        <v>39401</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>45</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
+        <v>59</v>
+      </c>
+      <c r="D35" s="6">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
@@ -1554,28 +1595,28 @@
       <c r="I35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J35" t="e">
-        <v>#N/A</v>
+      <c r="J35" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>40148</v>
+        <v>39457</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36">
+        <v>55</v>
+      </c>
+      <c r="D36" s="6">
+        <v>39</v>
+      </c>
+      <c r="E36">
         <v>46</v>
       </c>
-      <c r="D36">
-        <v>43</v>
-      </c>
-      <c r="E36">
-        <v>34</v>
-      </c>
-      <c r="F36" t="e">
-        <v>#N/A</v>
+      <c r="F36">
+        <v>8</v>
       </c>
       <c r="G36" t="e">
         <v>#N/A</v>
@@ -1586,28 +1627,28 @@
       <c r="I36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J36" t="e">
-        <v>#N/A</v>
+      <c r="J36" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>40221</v>
+        <v>39493</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>41</v>
-      </c>
-      <c r="D37">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="D37" s="6">
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G37" t="e">
         <v>#N/A</v>
@@ -1618,28 +1659,28 @@
       <c r="I37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J37">
-        <v>8</v>
+      <c r="J37" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>40334</v>
+        <v>39505</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
-        <v>45</v>
-      </c>
-      <c r="D38">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="D38" s="6">
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G38" t="e">
         <v>#N/A</v>
@@ -1650,28 +1691,28 @@
       <c r="I38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J38">
-        <v>8</v>
+      <c r="J38" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>40428</v>
+        <v>39583</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39" s="6">
+        <v>38</v>
+      </c>
+      <c r="E39">
         <v>43</v>
       </c>
-      <c r="D39">
-        <v>44</v>
-      </c>
-      <c r="E39">
-        <v>29</v>
-      </c>
       <c r="F39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G39" t="e">
         <v>#N/A</v>
@@ -1682,25 +1723,25 @@
       <c r="I39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J39">
-        <v>13</v>
+      <c r="J39" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40452</v>
+        <v>39618</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>41</v>
-      </c>
-      <c r="D40">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D40" s="6">
+        <v>42</v>
       </c>
       <c r="E40">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F40">
         <v>9</v>
@@ -1714,28 +1755,28 @@
       <c r="I40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J40">
-        <v>12</v>
+      <c r="J40" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40497</v>
+        <v>39661</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>41</v>
-      </c>
-      <c r="D41">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="D41" s="6">
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>26</v>
-      </c>
-      <c r="F41">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G41" t="e">
         <v>#N/A</v>
@@ -1746,28 +1787,28 @@
       <c r="I41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J41">
-        <v>16</v>
+      <c r="J41" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40507</v>
+        <v>39675</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>40</v>
-      </c>
-      <c r="D42">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="D42" s="6">
+        <v>38</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F42">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G42" t="e">
         <v>#N/A</v>
@@ -1778,28 +1819,28 @@
       <c r="I42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J42">
-        <v>8</v>
+      <c r="J42" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>40589</v>
+        <v>39719</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>52</v>
       </c>
-      <c r="D43">
-        <v>37</v>
+      <c r="D43" s="6">
+        <v>42</v>
       </c>
       <c r="E43">
-        <v>38</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G43" t="e">
         <v>#N/A</v>
@@ -1810,28 +1851,28 @@
       <c r="I43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J43">
-        <v>15</v>
+      <c r="J43" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>40592</v>
+        <v>39767</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C44">
+        <v>57</v>
+      </c>
+      <c r="D44" s="6">
+        <v>37</v>
+      </c>
+      <c r="E44">
         <v>45</v>
       </c>
-      <c r="D44">
-        <v>46</v>
-      </c>
-      <c r="E44">
-        <v>35</v>
-      </c>
       <c r="F44">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G44" t="e">
         <v>#N/A</v>
@@ -1842,60 +1883,60 @@
       <c r="I44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J44">
-        <v>7</v>
+      <c r="J44" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>40627</v>
+        <v>39845</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>45</v>
-      </c>
-      <c r="D45">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="D45" s="6">
+        <v>42</v>
       </c>
       <c r="E45">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J45" s="6">
         <v>10</v>
-      </c>
-      <c r="G45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J45">
-        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>40679</v>
+        <v>39876</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>40</v>
-      </c>
-      <c r="D46">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D46" s="6">
+        <v>43</v>
       </c>
       <c r="E46">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" t="e">
         <v>#N/A</v>
@@ -1906,28 +1947,28 @@
       <c r="I46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J46">
-        <v>11</v>
+      <c r="J46" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>40683</v>
+        <v>39891</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>39</v>
-      </c>
-      <c r="D47">
-        <v>52</v>
+        <v>49.9</v>
+      </c>
+      <c r="D47" s="6">
+        <v>42</v>
       </c>
       <c r="E47">
-        <v>30</v>
-      </c>
-      <c r="F47" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
       </c>
       <c r="G47" t="e">
         <v>#N/A</v>
@@ -1938,28 +1979,28 @@
       <c r="I47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J47" t="e">
-        <v>#N/A</v>
+      <c r="J47" s="6">
+        <v>8.5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>40770</v>
+        <v>39983</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>39</v>
-      </c>
-      <c r="D48">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="D48" s="6">
+        <v>47</v>
       </c>
       <c r="E48">
-        <v>27</v>
-      </c>
-      <c r="F48">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G48" t="e">
         <v>#N/A</v>
@@ -1970,28 +2011,28 @@
       <c r="I48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J48">
-        <v>15</v>
+      <c r="J48" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>40780</v>
+        <v>40025</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49">
-        <v>37</v>
-      </c>
-      <c r="D49">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="D49" s="6">
+        <v>48</v>
       </c>
       <c r="E49">
-        <v>28</v>
-      </c>
-      <c r="F49" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
       </c>
       <c r="G49" t="e">
         <v>#N/A</v>
@@ -2002,28 +2043,28 @@
       <c r="I49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J49" t="e">
-        <v>#N/A</v>
+      <c r="J49" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>40862</v>
+        <v>40068</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>44</v>
-      </c>
-      <c r="D50">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D50" s="6">
+        <v>43</v>
       </c>
       <c r="E50">
-        <v>31</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G50" t="e">
         <v>#N/A</v>
@@ -2034,92 +2075,92 @@
       <c r="I50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J50">
-        <v>15</v>
+      <c r="J50" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>40865</v>
+        <v>40116</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>38</v>
-      </c>
-      <c r="D51">
-        <v>50</v>
-      </c>
-      <c r="E51">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="D51" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H51">
-        <v>4</v>
+      <c r="H51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J51">
-        <v>8</v>
+      <c r="J51" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>40933</v>
+        <v>40148</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52">
-        <v>41</v>
-      </c>
-      <c r="D52">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D52" s="6">
+        <v>43</v>
       </c>
       <c r="E52">
-        <v>32</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H52">
-        <v>4</v>
+      <c r="H52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J52">
-        <v>5</v>
+      <c r="J52" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>40954</v>
+        <v>40221</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>42</v>
-      </c>
-      <c r="D53">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="D53" s="6">
+        <v>48</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G53" t="e">
         <v>#N/A</v>
@@ -2130,313 +2171,313 @@
       <c r="I53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J53">
-        <v>14</v>
+      <c r="J53" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>40954</v>
+        <v>40334</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>40</v>
-      </c>
-      <c r="D54">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H54">
-        <v>5</v>
+      <c r="H54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J54">
-        <v>5</v>
+      <c r="J54" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>40983</v>
+        <v>40428</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>40</v>
-      </c>
-      <c r="D55">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D55" s="6">
+        <v>44</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H55">
-        <v>8</v>
+      <c r="H55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J55">
-        <v>6</v>
+      <c r="J55" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>40989</v>
+        <v>40452</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="D56">
+        <v>41</v>
+      </c>
+      <c r="D56" s="6">
         <v>50</v>
       </c>
       <c r="E56">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H56">
-        <v>9</v>
+      <c r="H56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J56">
-        <v>7</v>
+      <c r="J56" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>41051</v>
+        <v>40497</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>33</v>
-      </c>
-      <c r="D57">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="D57" s="6">
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H57">
-        <v>7</v>
+      <c r="H57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J57">
-        <v>6</v>
+      <c r="J57" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>41136</v>
+        <v>40507</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>40</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>48</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H58">
-        <v>1</v>
+      <c r="H58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J58">
-        <v>12</v>
+      <c r="J58" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>41145</v>
+        <v>40589</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>40</v>
-      </c>
-      <c r="D59">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="D59" s="6">
+        <v>37</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H59">
-        <v>7</v>
+      <c r="H59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J59">
-        <v>6</v>
+      <c r="J59" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>41166</v>
+        <v>40592</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>45</v>
       </c>
-      <c r="D60">
-        <v>44.7</v>
+      <c r="D60" s="6">
+        <v>46</v>
       </c>
       <c r="E60">
-        <v>34.700000000000003</v>
+        <v>35</v>
       </c>
       <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J60" s="6">
         <v>7</v>
-      </c>
-      <c r="G60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H60">
-        <v>9.4</v>
-      </c>
-      <c r="I60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J60">
-        <v>4.2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>41228</v>
+        <v>40627</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>44</v>
-      </c>
-      <c r="D61">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="D61" s="6">
+        <v>47</v>
       </c>
       <c r="E61">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H61">
-        <v>4</v>
+      <c r="H61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J61">
-        <v>15</v>
+      <c r="J61" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>41236</v>
+        <v>40679</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>46</v>
-      </c>
-      <c r="D62">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D62" s="6">
+        <v>51</v>
       </c>
       <c r="E62">
-        <v>34.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="F62">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="G62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H62">
-        <v>8.9</v>
+      <c r="H62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J62">
-        <v>5.4</v>
+      <c r="J62" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>41236</v>
+        <v>40683</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63">
-        <v>44</v>
-      </c>
-      <c r="D63">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="D63" s="6">
+        <v>52</v>
       </c>
       <c r="E63">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F63" t="e">
         <v>#N/A</v>
@@ -2450,25 +2491,25 @@
       <c r="I63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J63" t="e">
+      <c r="J63" s="6" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>41244</v>
+        <v>40770</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>47</v>
-      </c>
-      <c r="D64">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D64" s="6">
+        <v>50</v>
       </c>
       <c r="E64">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -2476,162 +2517,162 @@
       <c r="G64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H64">
-        <v>7</v>
+      <c r="H64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J64">
-        <v>9</v>
+      <c r="J64" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41257</v>
+        <v>40780</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>45</v>
-      </c>
-      <c r="D65">
-        <v>41.9</v>
+        <v>37</v>
+      </c>
+      <c r="D65" s="6">
+        <v>52</v>
       </c>
       <c r="E65">
-        <v>32.1</v>
-      </c>
-      <c r="F65">
-        <v>8.1999999999999993</v>
+        <v>28</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H65">
-        <v>12.1</v>
+      <c r="H65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J65">
-        <v>5.7</v>
+      <c r="J65" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>41292</v>
+        <v>40862</v>
       </c>
       <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>44</v>
+      </c>
+      <c r="D66" s="6">
+        <v>44</v>
+      </c>
+      <c r="E66">
+        <v>31</v>
+      </c>
+      <c r="F66">
         <v>10</v>
       </c>
-      <c r="C66">
-        <v>46</v>
-      </c>
-      <c r="D66">
-        <v>42.5</v>
-      </c>
-      <c r="E66">
-        <v>34.9</v>
-      </c>
-      <c r="F66">
-        <v>8.4</v>
-      </c>
       <c r="G66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H66">
-        <v>10.5</v>
+      <c r="H66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J66">
-        <v>3.7</v>
+      <c r="J66" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>41320</v>
+        <v>40865</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C67">
         <v>38</v>
       </c>
-      <c r="D67">
-        <v>49</v>
+      <c r="D67" s="6">
+        <v>50</v>
       </c>
       <c r="E67">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67" t="e">
         <v>#N/A</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J67">
-        <v>15</v>
+      <c r="J67" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>41327</v>
+        <v>40933</v>
       </c>
       <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>41</v>
+      </c>
+      <c r="D68" s="6">
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <v>32</v>
+      </c>
+      <c r="F68">
         <v>10</v>
       </c>
-      <c r="C68">
-        <v>40</v>
-      </c>
-      <c r="D68">
-        <v>47.1</v>
-      </c>
-      <c r="E68">
-        <v>28.9</v>
-      </c>
-      <c r="F68">
-        <v>7.9</v>
-      </c>
       <c r="G68" t="e">
         <v>#N/A</v>
       </c>
       <c r="H68">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="I68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J68">
-        <v>3.6</v>
+      <c r="J68" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>41327</v>
+        <v>40954</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>45</v>
-      </c>
-      <c r="D69">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D69" s="6">
+        <v>47</v>
       </c>
       <c r="E69">
-        <v>34</v>
-      </c>
-      <c r="F69" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
       </c>
       <c r="G69" t="e">
         <v>#N/A</v>
@@ -2642,153 +2683,153 @@
       <c r="I69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J69" t="e">
-        <v>#N/A</v>
+      <c r="J69" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>41348</v>
+        <v>40954</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>42</v>
-      </c>
-      <c r="D70">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="D70" s="6">
+        <v>49</v>
       </c>
       <c r="E70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70" t="e">
         <v>#N/A</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J70">
-        <v>9</v>
+      <c r="J70" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>41355</v>
+        <v>40983</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D71">
-        <v>47.8</v>
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71" s="6">
+        <v>47</v>
       </c>
       <c r="E71">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H71">
         <v>8</v>
       </c>
-      <c r="G71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H71">
-        <v>10.1</v>
-      </c>
       <c r="I71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J71">
-        <v>3.9</v>
+      <c r="J71" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>41409</v>
+        <v>40989</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>41</v>
-      </c>
-      <c r="D72">
-        <v>44</v>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D72" s="6">
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G72" t="e">
         <v>#N/A</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J72">
-        <v>14</v>
+      <c r="J72" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41416</v>
+        <v>41051</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>43</v>
-      </c>
-      <c r="D73">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="D73" s="6">
+        <v>54</v>
       </c>
       <c r="E73">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73" t="e">
         <v>#N/A</v>
       </c>
       <c r="H73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J73">
-        <v>8</v>
+      <c r="J73" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41416</v>
+        <v>41136</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D74">
-        <v>44.6</v>
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74" s="6">
+        <v>48</v>
       </c>
       <c r="E74">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="F74">
         <v>9</v>
@@ -2797,62 +2838,62 @@
         <v>#N/A</v>
       </c>
       <c r="H74">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="I74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J74">
-        <v>7.8</v>
+      <c r="J74" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41465</v>
+        <v>41145</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>47</v>
-      </c>
-      <c r="D75">
-        <v>43.3</v>
+        <v>40</v>
+      </c>
+      <c r="D75" s="6">
+        <v>48</v>
       </c>
       <c r="E75">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F75">
-        <v>5.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="G75" t="e">
         <v>#N/A</v>
       </c>
       <c r="H75">
-        <v>5.7</v>
-      </c>
-      <c r="I75">
-        <v>4.5</v>
-      </c>
-      <c r="J75">
-        <v>4.4000000000000004</v>
+        <v>7</v>
+      </c>
+      <c r="I75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J75" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41495</v>
+        <v>41166</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>43</v>
-      </c>
-      <c r="D76">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D76" s="6">
+        <v>44.7</v>
       </c>
       <c r="E76">
-        <v>34</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="F76">
         <v>7</v>
@@ -2861,30 +2902,30 @@
         <v>#N/A</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="I76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J76">
-        <v>6</v>
+      <c r="J76" s="6">
+        <v>4.2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
       <c r="C77">
-        <v>43</v>
-      </c>
-      <c r="D77">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D77" s="6">
+        <v>42</v>
       </c>
       <c r="E77">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -2892,66 +2933,66 @@
       <c r="G77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H77" t="e">
-        <v>#N/A</v>
+      <c r="H77">
+        <v>4</v>
       </c>
       <c r="I77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J77">
-        <v>14</v>
+      <c r="J77" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41592</v>
+        <v>41236</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>43</v>
-      </c>
-      <c r="D78">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D78" s="6">
+        <v>42</v>
       </c>
       <c r="E78">
-        <v>33</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="G78" t="e">
         <v>#N/A</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="I78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J78">
-        <v>9</v>
+      <c r="J78" s="6">
+        <v>5.4</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41593</v>
+        <v>41236</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>45</v>
-      </c>
-      <c r="D79">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="D79" s="6">
+        <v>44</v>
       </c>
       <c r="E79">
-        <v>32</v>
-      </c>
-      <c r="F79">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G79" t="e">
         <v>#N/A</v>
@@ -2962,237 +3003,237 @@
       <c r="I79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J79">
-        <v>20</v>
+      <c r="J79" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41593</v>
+        <v>41244</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80">
-        <v>43</v>
-      </c>
-      <c r="D80">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D80" s="6">
+        <v>41</v>
       </c>
       <c r="E80">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H80">
         <v>7</v>
       </c>
-      <c r="G80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H80">
-        <v>3</v>
-      </c>
-      <c r="I80">
-        <v>6</v>
-      </c>
-      <c r="J80">
-        <v>6</v>
+      <c r="I80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J80" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41623</v>
+        <v>41257</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>45</v>
       </c>
-      <c r="D81">
-        <v>44</v>
+      <c r="D81" s="6">
+        <v>41.9</v>
       </c>
       <c r="E81">
-        <v>34</v>
+        <v>32.1</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G81" t="e">
         <v>#N/A</v>
       </c>
       <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81">
-        <v>9</v>
-      </c>
-      <c r="J81">
-        <v>6</v>
+        <v>12.1</v>
+      </c>
+      <c r="I81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J81" s="6">
+        <v>5.7</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41654</v>
+        <v>41292</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>50</v>
-      </c>
-      <c r="D82">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="D82" s="6">
+        <v>42.5</v>
       </c>
       <c r="E82">
-        <v>38</v>
+        <v>34.9</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="G82" t="e">
         <v>#N/A</v>
       </c>
       <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="I82">
-        <v>6</v>
-      </c>
-      <c r="J82">
-        <v>7</v>
+        <v>10.5</v>
+      </c>
+      <c r="I82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J82" s="6">
+        <v>3.7</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41679</v>
+        <v>41320</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>47</v>
-      </c>
-      <c r="D83">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D83" s="6">
+        <v>49</v>
       </c>
       <c r="E83">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H83" t="e">
-        <v>#N/A</v>
+      <c r="H83">
+        <v>3</v>
       </c>
       <c r="I83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41685</v>
+        <v>41327</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>48</v>
-      </c>
-      <c r="D84">
         <v>40</v>
       </c>
+      <c r="D84" s="6">
+        <v>47.1</v>
+      </c>
       <c r="E84">
-        <v>36</v>
+        <v>28.9</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="G84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H84" t="e">
-        <v>#N/A</v>
+      <c r="H84">
+        <v>11.5</v>
       </c>
       <c r="I84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J84">
-        <v>16</v>
+      <c r="J84" s="6">
+        <v>3.6</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41685</v>
+        <v>41327</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>50</v>
-      </c>
-      <c r="D85">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="D85" s="6">
+        <v>43</v>
       </c>
       <c r="E85">
-        <v>39</v>
-      </c>
-      <c r="F85">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="F85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85">
-        <v>7</v>
-      </c>
-      <c r="J85">
-        <v>4</v>
+      <c r="H85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J85" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41713</v>
+        <v>41348</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>47</v>
-      </c>
-      <c r="D86">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D86" s="6">
+        <v>45</v>
       </c>
       <c r="E86">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H86">
         <v>7</v>
       </c>
-      <c r="G86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H86">
-        <v>3</v>
-      </c>
-      <c r="I86">
-        <v>8</v>
-      </c>
-      <c r="J86">
-        <v>7</v>
+      <c r="I86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J86" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41731</v>
+        <v>41355</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3200,46 +3241,46 @@
       <c r="C87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D87">
-        <v>39.1</v>
+      <c r="D87" s="6">
+        <v>47.8</v>
       </c>
       <c r="E87">
-        <v>35.1</v>
+        <v>30.2</v>
       </c>
       <c r="F87">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="G87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I87">
-        <v>8</v>
-      </c>
-      <c r="J87">
-        <v>10.5</v>
+      <c r="H87">
+        <v>10.1</v>
+      </c>
+      <c r="I87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J87" s="6">
+        <v>3.9</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41744</v>
+        <v>41409</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>52</v>
-      </c>
-      <c r="D88">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="D88" s="6">
+        <v>44</v>
       </c>
       <c r="E88">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G88" t="e">
         <v>#N/A</v>
@@ -3247,28 +3288,28 @@
       <c r="H88">
         <v>3</v>
       </c>
-      <c r="I88">
-        <v>8</v>
-      </c>
-      <c r="J88">
-        <v>7</v>
+      <c r="I88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J88" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41774</v>
+        <v>41416</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>51</v>
-      </c>
-      <c r="D89">
+        <v>43</v>
+      </c>
+      <c r="D89" s="6">
+        <v>44</v>
+      </c>
+      <c r="E89">
         <v>32</v>
-      </c>
-      <c r="E89">
-        <v>34</v>
       </c>
       <c r="F89">
         <v>8</v>
@@ -3276,130 +3317,130 @@
       <c r="G89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H89" t="e">
-        <v>#N/A</v>
+      <c r="H89">
+        <v>8</v>
       </c>
       <c r="I89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J89">
-        <v>24</v>
+      <c r="J89" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41774</v>
+        <v>41416</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>47</v>
-      </c>
-      <c r="D90">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="C90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D90" s="6">
+        <v>44.6</v>
       </c>
       <c r="E90">
-        <v>36</v>
+        <v>28.5</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G90" t="e">
         <v>#N/A</v>
       </c>
       <c r="H90">
-        <v>2</v>
-      </c>
-      <c r="I90">
-        <v>12</v>
-      </c>
-      <c r="J90">
-        <v>5</v>
+        <v>10.4</v>
+      </c>
+      <c r="I90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J90" s="6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41782</v>
+        <v>41465</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>45</v>
-      </c>
-      <c r="D91">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="D91" s="6">
+        <v>43.3</v>
       </c>
       <c r="E91">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H91" t="e">
-        <v>#N/A</v>
+      <c r="H91">
+        <v>5.7</v>
       </c>
       <c r="I91">
-        <v>5</v>
-      </c>
-      <c r="J91">
-        <v>10</v>
+        <v>4.5</v>
+      </c>
+      <c r="J91" s="6">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41795</v>
+        <v>41495</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>46.4</v>
-      </c>
-      <c r="D92">
-        <v>40.9</v>
+        <v>43</v>
+      </c>
+      <c r="D92" s="6">
+        <v>47</v>
       </c>
       <c r="E92">
         <v>34</v>
       </c>
       <c r="F92">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="G92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I92">
-        <v>13.6</v>
-      </c>
-      <c r="J92">
-        <v>6.3</v>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J92" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41823</v>
+        <v>41592</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>49</v>
-      </c>
-      <c r="D93">
-        <v>38.700000000000003</v>
+        <v>43</v>
+      </c>
+      <c r="D93" s="6">
+        <v>45</v>
       </c>
       <c r="E93">
-        <v>34.4</v>
+        <v>33</v>
       </c>
       <c r="F93">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="G93" t="e">
         <v>#N/A</v>
@@ -3407,63 +3448,63 @@
       <c r="H93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I93">
-        <v>15.4</v>
-      </c>
-      <c r="J93">
-        <v>5.4</v>
+      <c r="I93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J93" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41842</v>
+        <v>41592</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D94">
-        <v>37.6</v>
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>43</v>
+      </c>
+      <c r="D94" s="6">
+        <v>45</v>
       </c>
       <c r="E94">
-        <v>34.6</v>
+        <v>33</v>
       </c>
       <c r="F94">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="G94" t="e">
         <v>#N/A</v>
       </c>
       <c r="H94">
-        <v>3.4</v>
-      </c>
-      <c r="I94">
-        <v>13.4</v>
-      </c>
-      <c r="J94">
-        <v>4.9000000000000004</v>
+        <v>5</v>
+      </c>
+      <c r="I94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J94" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41858</v>
+        <v>41593</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>48</v>
-      </c>
-      <c r="D95">
-        <v>34.4</v>
+        <v>45</v>
+      </c>
+      <c r="D95" s="6">
+        <v>40</v>
       </c>
       <c r="E95">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F95">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G95" t="e">
         <v>#N/A</v>
@@ -3471,28 +3512,28 @@
       <c r="H95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I95">
-        <v>12.6</v>
-      </c>
-      <c r="J95">
-        <v>5.4</v>
+      <c r="I95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J95" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41866</v>
+        <v>41593</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>48</v>
-      </c>
-      <c r="D96">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D96" s="6">
+        <v>46</v>
       </c>
       <c r="E96">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F96">
         <v>7</v>
@@ -3504,59 +3545,59 @@
         <v>3</v>
       </c>
       <c r="I96">
-        <v>12</v>
-      </c>
-      <c r="J96">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="J96" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41866</v>
+        <v>41623</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>46</v>
-      </c>
-      <c r="D97">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="D97" s="6">
+        <v>44</v>
       </c>
       <c r="E97">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J97">
-        <v>18</v>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>9</v>
+      </c>
+      <c r="J97" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41886</v>
+        <v>41654</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>49</v>
-      </c>
-      <c r="D98">
-        <v>41.2</v>
+        <v>50</v>
+      </c>
+      <c r="D98" s="6">
+        <v>40</v>
       </c>
       <c r="E98">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -3564,34 +3605,34 @@
       <c r="G98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H98" t="e">
-        <v>#N/A</v>
+      <c r="H98">
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>9.5</v>
-      </c>
-      <c r="J98">
-        <v>7.3</v>
+        <v>6</v>
+      </c>
+      <c r="J98" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41910</v>
+        <v>41679</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>49</v>
-      </c>
-      <c r="D99">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="D99" s="6">
+        <v>41</v>
       </c>
       <c r="E99">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99" t="e">
         <v>#N/A</v>
@@ -3599,31 +3640,31 @@
       <c r="H99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I99">
-        <v>6.5</v>
-      </c>
-      <c r="J99">
-        <v>7</v>
+      <c r="I99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J99" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41922</v>
+        <v>41685</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>49</v>
-      </c>
-      <c r="D100">
-        <v>40.9</v>
+        <v>48</v>
+      </c>
+      <c r="D100" s="6">
+        <v>40</v>
       </c>
       <c r="E100">
-        <v>36.6</v>
+        <v>36</v>
       </c>
       <c r="F100">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G100" t="e">
         <v>#N/A</v>
@@ -3631,95 +3672,95 @@
       <c r="H100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I100">
-        <v>7.2</v>
-      </c>
-      <c r="J100">
-        <v>9.3000000000000007</v>
+      <c r="I100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J100" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41958</v>
+        <v>41685</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>50</v>
       </c>
-      <c r="D101">
-        <v>37</v>
+      <c r="D101" s="6">
+        <v>39</v>
       </c>
       <c r="E101">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J101">
-        <v>17</v>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41962</v>
+        <v>41713</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>50</v>
-      </c>
-      <c r="D102">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="D102" s="6">
+        <v>41</v>
       </c>
       <c r="E102">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H102" t="e">
-        <v>#N/A</v>
+      <c r="H102">
+        <v>3</v>
       </c>
       <c r="I102">
+        <v>8</v>
+      </c>
+      <c r="J102" s="6">
         <v>7</v>
-      </c>
-      <c r="J102">
-        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41971</v>
+        <v>41731</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
-      <c r="C103">
-        <v>51</v>
-      </c>
-      <c r="D103">
-        <v>39.200000000000003</v>
+      <c r="C103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D103" s="6">
+        <v>39.1</v>
       </c>
       <c r="E103">
-        <v>37.299999999999997</v>
+        <v>35.1</v>
       </c>
       <c r="F103">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="G103" t="e">
         <v>#N/A</v>
@@ -3727,31 +3768,31 @@
       <c r="H103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I103" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="J103">
-        <v>9.1</v>
+      <c r="I103">
+        <v>8</v>
+      </c>
+      <c r="J103" s="6">
+        <v>10.5</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41980</v>
+        <v>41744</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>51</v>
-      </c>
-      <c r="D104">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="D104" s="6">
+        <v>36</v>
       </c>
       <c r="E104">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G104" t="e">
         <v>#N/A</v>
@@ -3760,30 +3801,30 @@
         <v>3</v>
       </c>
       <c r="I104">
-        <v>5</v>
-      </c>
-      <c r="J104">
+        <v>8</v>
+      </c>
+      <c r="J104" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>42010</v>
+        <v>41774</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>50</v>
-      </c>
-      <c r="D105">
-        <v>40.299999999999997</v>
+        <v>51</v>
+      </c>
+      <c r="D105" s="6">
+        <v>32</v>
       </c>
       <c r="E105">
-        <v>38.1</v>
+        <v>34</v>
       </c>
       <c r="F105">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G105" t="e">
         <v>#N/A</v>
@@ -3791,60 +3832,60 @@
       <c r="H105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I105">
-        <v>6.3</v>
-      </c>
-      <c r="J105">
-        <v>7.7</v>
+      <c r="I105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J105" s="6">
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>42012</v>
+        <v>41774</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106">
         <v>47</v>
       </c>
-      <c r="D106">
-        <v>42</v>
+      <c r="D106" s="6">
+        <v>41</v>
       </c>
       <c r="E106">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J106">
-        <v>14</v>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>12</v>
+      </c>
+      <c r="J106" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>42012</v>
+        <v>41782</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
       </c>
       <c r="C107">
-        <v>48</v>
-      </c>
-      <c r="D107">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="D107" s="6">
+        <v>43</v>
       </c>
       <c r="E107">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F107">
         <v>8</v>
@@ -3855,31 +3896,31 @@
       <c r="H107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J107">
-        <v>13</v>
+      <c r="I107">
+        <v>5</v>
+      </c>
+      <c r="J107" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>42022</v>
+        <v>41795</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>50</v>
-      </c>
-      <c r="D108">
-        <v>39</v>
+        <v>46.4</v>
+      </c>
+      <c r="D108" s="6">
+        <v>40.9</v>
       </c>
       <c r="E108">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="G108" t="e">
         <v>#N/A</v>
@@ -3888,30 +3929,30 @@
         <v>#N/A</v>
       </c>
       <c r="I108">
-        <v>5</v>
-      </c>
-      <c r="J108">
-        <v>11</v>
+        <v>13.6</v>
+      </c>
+      <c r="J108" s="6">
+        <v>6.3</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>42024</v>
+        <v>41823</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109">
-        <v>48</v>
-      </c>
-      <c r="D109">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D109" s="6">
+        <v>38.700000000000003</v>
       </c>
       <c r="E109">
-        <v>36.700000000000003</v>
+        <v>34.4</v>
       </c>
       <c r="F109">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="G109" t="e">
         <v>#N/A</v>
@@ -3920,126 +3961,126 @@
         <v>#N/A</v>
       </c>
       <c r="I109">
-        <v>5.9</v>
-      </c>
-      <c r="J109">
-        <v>7</v>
+        <v>15.4</v>
+      </c>
+      <c r="J109" s="6">
+        <v>5.4</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>42032</v>
+        <v>41842</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110">
-        <v>48</v>
-      </c>
-      <c r="D110">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="C110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D110" s="6">
+        <v>37.6</v>
       </c>
       <c r="E110">
-        <v>37</v>
+        <v>34.6</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="G110" t="e">
         <v>#N/A</v>
       </c>
       <c r="H110">
-        <v>2</v>
-      </c>
-      <c r="I110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J110">
-        <v>14</v>
+        <v>3.4</v>
+      </c>
+      <c r="I110">
+        <v>13.4</v>
+      </c>
+      <c r="J110" s="6">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>42032</v>
+        <v>41858</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111">
         <v>48</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="E111">
         <v>41</v>
       </c>
-      <c r="E111">
-        <v>37</v>
-      </c>
       <c r="F111">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="G111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H111">
-        <v>2</v>
+      <c r="H111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I111">
-        <v>4</v>
-      </c>
-      <c r="J111">
-        <v>8</v>
+        <v>12.6</v>
+      </c>
+      <c r="J111" s="6">
+        <v>5.4</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>42033</v>
+        <v>41866</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112">
         <v>48</v>
       </c>
-      <c r="D112">
-        <v>41.5</v>
+      <c r="D112" s="6">
+        <v>39</v>
       </c>
       <c r="E112">
-        <v>37.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="F112">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H112" t="e">
-        <v>#N/A</v>
+      <c r="H112">
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J112">
-        <v>9.4</v>
+        <v>12</v>
+      </c>
+      <c r="J112" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>42103</v>
+        <v>41866</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>50</v>
-      </c>
-      <c r="D113">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="D113" s="6">
+        <v>39</v>
       </c>
       <c r="E113">
-        <v>39</v>
-      </c>
-      <c r="F113" t="e">
-        <v>#N/A</v>
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
       </c>
       <c r="G113" t="e">
         <v>#N/A</v>
@@ -4050,28 +4091,28 @@
       <c r="I113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J113" t="e">
-        <v>#N/A</v>
+      <c r="J113" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>42145</v>
+        <v>41886</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>52</v>
-      </c>
-      <c r="D114">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="D114" s="6">
+        <v>41.2</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F114">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G114" t="e">
         <v>#N/A</v>
@@ -4079,31 +4120,31 @@
       <c r="H114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J114">
-        <v>12</v>
+      <c r="I114">
+        <v>9.5</v>
+      </c>
+      <c r="J114" s="6">
+        <v>7.3</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>42146</v>
+        <v>41910</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C115">
-        <v>48</v>
-      </c>
-      <c r="D115">
-        <v>45.6</v>
+        <v>49</v>
+      </c>
+      <c r="D115" s="6">
+        <v>42</v>
       </c>
       <c r="E115">
-        <v>37.6</v>
+        <v>35.5</v>
       </c>
       <c r="F115">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G115" t="e">
         <v>#N/A</v>
@@ -4111,60 +4152,60 @@
       <c r="H115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J115">
-        <v>7.4</v>
+      <c r="I115">
+        <v>6.5</v>
+      </c>
+      <c r="J115" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>42217</v>
+        <v>41922</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C116">
-        <v>51</v>
-      </c>
-      <c r="D116">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="D116" s="6">
+        <v>40.9</v>
       </c>
       <c r="E116">
-        <v>36</v>
+        <v>36.6</v>
       </c>
       <c r="F116">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="G116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H116">
-        <v>4</v>
-      </c>
-      <c r="I116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J116">
-        <v>6</v>
+      <c r="H116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I116">
+        <v>7.2</v>
+      </c>
+      <c r="J116" s="6">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>42236</v>
+        <v>41958</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>52</v>
-      </c>
-      <c r="D117">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="D117" s="6">
+        <v>37</v>
       </c>
       <c r="E117">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F117">
         <v>10</v>
@@ -4178,28 +4219,28 @@
       <c r="I117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J117">
-        <v>11</v>
+      <c r="J117" s="6">
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>42246</v>
+        <v>41962</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>52</v>
-      </c>
-      <c r="D118">
-        <v>41.5</v>
+        <v>50</v>
+      </c>
+      <c r="D118" s="6">
+        <v>37</v>
       </c>
       <c r="E118">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G118" t="e">
         <v>#N/A</v>
@@ -4207,31 +4248,31 @@
       <c r="H118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J118">
-        <v>8</v>
+      <c r="I118">
+        <v>7</v>
+      </c>
+      <c r="J118" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>42247</v>
+        <v>41971</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C119">
-        <v>53</v>
-      </c>
-      <c r="D119">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="D119" s="6">
+        <v>39.200000000000003</v>
       </c>
       <c r="E119">
-        <v>41</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="F119">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="G119" t="e">
         <v>#N/A</v>
@@ -4239,95 +4280,95 @@
       <c r="H119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J119">
-        <v>12</v>
+      <c r="I119" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="J119" s="6">
+        <v>9.1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>42289</v>
+        <v>41980</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>49</v>
-      </c>
-      <c r="D120">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="D120" s="6">
+        <v>38</v>
       </c>
       <c r="E120">
-        <v>34.5</v>
+        <v>37</v>
       </c>
       <c r="F120">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="G120" t="e">
         <v>#N/A</v>
       </c>
       <c r="H120">
-        <v>4</v>
-      </c>
-      <c r="I120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J120">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>5</v>
+      </c>
+      <c r="J120" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>42292</v>
+        <v>42010</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>49</v>
-      </c>
-      <c r="D121">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="D121" s="6">
+        <v>40.299999999999997</v>
       </c>
       <c r="E121">
-        <v>40</v>
+        <v>38.1</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="G121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H121">
-        <v>3</v>
-      </c>
-      <c r="I121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J121">
-        <v>8</v>
+      <c r="H121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I121">
+        <v>6.3</v>
+      </c>
+      <c r="J121" s="6">
+        <v>7.7</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>42323</v>
+        <v>42012</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
       </c>
       <c r="C122">
-        <v>52</v>
-      </c>
-      <c r="D122">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="D122" s="6">
+        <v>42</v>
       </c>
       <c r="E122">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G122" t="e">
         <v>#N/A</v>
@@ -4338,60 +4379,60 @@
       <c r="I122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J122">
-        <v>12</v>
+      <c r="J122" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>42323</v>
+        <v>42012</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>49</v>
-      </c>
-      <c r="D123">
+        <v>48</v>
+      </c>
+      <c r="D123" s="6">
         <v>41</v>
       </c>
       <c r="E123">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H123">
-        <v>2</v>
+      <c r="H123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J123">
-        <v>9</v>
+      <c r="J123" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>42330</v>
+        <v>42022</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>49</v>
-      </c>
-      <c r="D124">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="D124" s="6">
+        <v>39</v>
       </c>
       <c r="E124">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G124" t="e">
         <v>#N/A</v>
@@ -4399,92 +4440,92 @@
       <c r="H124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J124">
-        <v>12</v>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>42343</v>
+        <v>42024</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>51.5</v>
-      </c>
-      <c r="D125">
-        <v>40.5</v>
+        <v>48</v>
+      </c>
+      <c r="D125" s="6">
+        <v>42</v>
       </c>
       <c r="E125">
-        <v>38.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="G125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H125">
-        <v>3.5</v>
-      </c>
-      <c r="I125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J125">
-        <v>7.5</v>
+      <c r="H125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I125">
+        <v>5.9</v>
+      </c>
+      <c r="J125" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>42353</v>
+        <v>42032</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>53</v>
-      </c>
-      <c r="D126">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D126" s="6">
+        <v>41</v>
       </c>
       <c r="E126">
         <v>37</v>
       </c>
       <c r="F126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G126" t="e">
         <v>#N/A</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J126">
-        <v>8</v>
+      <c r="J126" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>42384</v>
+        <v>42032</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C127">
-        <v>53</v>
-      </c>
-      <c r="D127">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="D127" s="6">
+        <v>41</v>
       </c>
       <c r="E127">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F127">
         <v>8</v>
@@ -4495,127 +4536,127 @@
       <c r="H127">
         <v>2</v>
       </c>
-      <c r="I127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J127">
-        <v>12</v>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>42400</v>
+        <v>42033</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C128">
         <v>48</v>
       </c>
-      <c r="D128">
-        <v>45.5</v>
+      <c r="D128" s="6">
+        <v>41.5</v>
       </c>
       <c r="E128">
-        <v>36.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F128">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="G128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H128">
-        <v>3</v>
-      </c>
-      <c r="I128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J128">
-        <v>6</v>
+      <c r="H128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I128">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J128" s="6">
+        <v>9.4</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>42411</v>
+        <v>42103</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
       </c>
       <c r="C129">
-        <v>48</v>
-      </c>
-      <c r="D129">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="D129" s="6">
+        <v>42</v>
       </c>
       <c r="E129">
-        <v>37</v>
-      </c>
-      <c r="F129">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="F129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H129">
-        <v>4</v>
+      <c r="H129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J129">
-        <v>7</v>
+      <c r="J129" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>42415</v>
+        <v>42145</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>52</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="6">
+        <v>39</v>
+      </c>
+      <c r="E130">
         <v>40</v>
       </c>
-      <c r="E130">
-        <v>38</v>
-      </c>
       <c r="F130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H130">
-        <v>2</v>
+      <c r="H130" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J130">
-        <v>9</v>
+      <c r="J130" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>42439</v>
+        <v>42146</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131">
-        <v>49</v>
-      </c>
-      <c r="D131">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="D131" s="6">
+        <v>45.6</v>
       </c>
       <c r="E131">
-        <v>39</v>
-      </c>
-      <c r="F131" t="e">
-        <v>#N/A</v>
+        <v>37.6</v>
+      </c>
+      <c r="F131">
+        <v>9.4</v>
       </c>
       <c r="G131" t="e">
         <v>#N/A</v>
@@ -4626,92 +4667,92 @@
       <c r="I131" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J131" t="e">
-        <v>#N/A</v>
+      <c r="J131" s="6">
+        <v>7.4</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>42445</v>
+        <v>42217</v>
       </c>
       <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132">
+        <v>51</v>
+      </c>
+      <c r="D132" s="6">
+        <v>41</v>
+      </c>
+      <c r="E132">
+        <v>36</v>
+      </c>
+      <c r="F132">
+        <v>13</v>
+      </c>
+      <c r="G132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H132">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>53</v>
-      </c>
-      <c r="D132">
-        <v>40</v>
-      </c>
-      <c r="E132">
-        <v>41</v>
-      </c>
-      <c r="F132">
-        <v>8</v>
-      </c>
-      <c r="G132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
       <c r="I132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J132">
-        <v>8</v>
+      <c r="J132" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>42459</v>
+        <v>42236</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C133">
         <v>52</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="6">
+        <v>39</v>
+      </c>
+      <c r="E133">
         <v>40</v>
       </c>
-      <c r="E133">
-        <v>37.5</v>
-      </c>
       <c r="F133">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="G133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H133" s="4">
-        <v>3.5</v>
+      <c r="H133" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J133">
-        <v>6.5</v>
+      <c r="J133" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>42475</v>
+        <v>42246</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C134">
-        <v>49</v>
-      </c>
-      <c r="D134">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="D134" s="6">
+        <v>41.5</v>
       </c>
       <c r="E134">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G134" t="e">
         <v>#N/A</v>
@@ -4722,28 +4763,28 @@
       <c r="I134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J134">
-        <v>12</v>
+      <c r="J134" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>42486</v>
+        <v>42247</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C135">
-        <v>48</v>
-      </c>
-      <c r="D135">
-        <v>42.8</v>
+        <v>53</v>
+      </c>
+      <c r="D135" s="6">
+        <v>38</v>
       </c>
       <c r="E135">
-        <v>36.9</v>
+        <v>41</v>
       </c>
       <c r="F135">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="G135" t="e">
         <v>#N/A</v>
@@ -4754,89 +4795,89 @@
       <c r="I135" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J135">
-        <v>9.5</v>
+      <c r="J135" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>42503</v>
+        <v>42289</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C136">
-        <v>48</v>
-      </c>
-      <c r="D136">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="D136" s="6">
+        <v>42</v>
       </c>
       <c r="E136">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="F136">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="G136" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H136" t="e">
-        <v>#N/A</v>
+      <c r="H136">
+        <v>4</v>
       </c>
       <c r="I136" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J136">
-        <v>11</v>
+      <c r="J136" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>42505</v>
+        <v>42292</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>51</v>
-      </c>
-      <c r="D137">
+        <v>49</v>
+      </c>
+      <c r="D137" s="6">
+        <v>42</v>
+      </c>
+      <c r="E137">
         <v>40</v>
       </c>
-      <c r="E137">
-        <v>38</v>
-      </c>
-      <c r="F137" t="e">
-        <v>#N/A</v>
+      <c r="F137">
+        <v>8</v>
       </c>
       <c r="G137" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H137" t="e">
-        <v>#N/A</v>
+      <c r="H137">
+        <v>3</v>
       </c>
       <c r="I137" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J137" t="e">
-        <v>#N/A</v>
+      <c r="J137" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>42505</v>
+        <v>42323</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>51</v>
-      </c>
-      <c r="D138">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="D138" s="6">
+        <v>39</v>
       </c>
       <c r="E138">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F138">
         <v>8</v>
@@ -4844,293 +4885,293 @@
       <c r="G138" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H138">
-        <v>3</v>
+      <c r="H138" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I138" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>42515</v>
+        <v>42323</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>50</v>
-      </c>
-      <c r="D139">
-        <v>40.5</v>
+        <v>49</v>
+      </c>
+      <c r="D139" s="6">
+        <v>41</v>
       </c>
       <c r="E139">
-        <v>35.5</v>
+        <v>39</v>
       </c>
       <c r="F139">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="G139" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H139" t="e">
-        <v>#N/A</v>
+      <c r="H139">
+        <v>2</v>
       </c>
       <c r="I139" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J139">
-        <v>13</v>
+      <c r="J139" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>42566</v>
+        <v>42330</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C140">
-        <v>51</v>
-      </c>
-      <c r="D140">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="D140" s="6">
+        <v>42</v>
       </c>
       <c r="E140">
         <v>37</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H140">
-        <v>2</v>
+      <c r="H140" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J140">
-        <v>13</v>
+      <c r="J140" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>42586</v>
+        <v>42343</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C141">
-        <v>50</v>
-      </c>
-      <c r="D141">
-        <v>38</v>
+        <v>51.5</v>
+      </c>
+      <c r="D141" s="6">
+        <v>40.5</v>
       </c>
       <c r="E141">
-        <v>33</v>
-      </c>
-      <c r="F141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G141">
-        <v>16</v>
-      </c>
-      <c r="H141" t="e">
-        <v>#N/A</v>
+        <v>38.5</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H141">
+        <v>3.5</v>
       </c>
       <c r="I141" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J141" t="e">
-        <v>#N/A</v>
+      <c r="J141" s="6">
+        <v>7.5</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>42597</v>
+        <v>42353</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
       </c>
       <c r="C142">
-        <v>56</v>
-      </c>
-      <c r="D142">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="D142" s="6">
+        <v>45</v>
       </c>
       <c r="E142">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F142">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G142" t="e">
         <v>#N/A</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J142">
-        <v>15</v>
+      <c r="J142" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>42602</v>
+        <v>42384</v>
       </c>
       <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>53</v>
+      </c>
+      <c r="D143" s="6">
+        <v>39</v>
+      </c>
+      <c r="E143">
+        <v>40</v>
+      </c>
+      <c r="F143">
+        <v>8</v>
+      </c>
+      <c r="G143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J143" s="6">
         <v>12</v>
-      </c>
-      <c r="C143">
-        <v>50</v>
-      </c>
-      <c r="D143">
-        <v>38.5</v>
-      </c>
-      <c r="E143">
-        <v>36.5</v>
-      </c>
-      <c r="F143">
-        <v>9.5</v>
-      </c>
-      <c r="G143">
-        <v>8.5</v>
-      </c>
-      <c r="H143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J143">
-        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>42628</v>
+        <v>42400</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C144">
-        <v>52</v>
-      </c>
-      <c r="D144">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="D144" s="6">
+        <v>45.5</v>
       </c>
       <c r="E144">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="F144">
-        <v>8</v>
-      </c>
-      <c r="G144">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G144" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J144">
-        <v>9</v>
+      <c r="J144" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>42644</v>
+        <v>42411</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>52</v>
-      </c>
-      <c r="D145">
-        <v>33.5</v>
+        <v>48</v>
+      </c>
+      <c r="D145" s="6">
+        <v>43</v>
       </c>
       <c r="E145">
-        <v>35.5</v>
+        <v>37</v>
       </c>
       <c r="F145">
-        <v>12</v>
-      </c>
-      <c r="G145">
-        <v>10.5</v>
-      </c>
-      <c r="H145" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="G145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H145">
+        <v>4</v>
       </c>
       <c r="I145" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J145">
-        <v>8.5</v>
+      <c r="J145" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>42658</v>
+        <v>42415</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
       </c>
       <c r="C146">
-        <v>54</v>
-      </c>
-      <c r="D146">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="D146" s="6">
+        <v>40</v>
       </c>
       <c r="E146">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F146">
-        <v>9</v>
-      </c>
-      <c r="G146">
         <v>10</v>
       </c>
+      <c r="G146" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J146">
-        <v>8</v>
+      <c r="J146" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>42685</v>
+        <v>42439</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
       </c>
       <c r="C147">
-        <v>51</v>
-      </c>
-      <c r="D147">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="D147" s="6">
+        <v>43</v>
       </c>
       <c r="E147">
-        <v>35</v>
-      </c>
-      <c r="F147">
-        <v>8</v>
-      </c>
-      <c r="G147">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="F147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G147" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H147" t="e">
         <v>#N/A</v>
@@ -5138,31 +5179,31 @@
       <c r="I147" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J147">
-        <v>4</v>
+      <c r="J147" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>42689</v>
+        <v>42445</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
       </c>
       <c r="C148">
-        <v>56</v>
-      </c>
-      <c r="D148">
-        <v>32</v>
+        <v>53</v>
+      </c>
+      <c r="D148" s="6">
+        <v>40</v>
       </c>
       <c r="E148">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F148">
-        <v>10</v>
-      </c>
-      <c r="G148">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G148" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -5170,63 +5211,63 @@
       <c r="I148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J148">
-        <v>7</v>
+      <c r="J148" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>42719</v>
+        <v>42459</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>53</v>
-      </c>
-      <c r="D149">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="D149" s="6">
+        <v>40</v>
       </c>
       <c r="E149">
-        <v>33</v>
+        <v>37.5</v>
       </c>
       <c r="F149">
-        <v>10</v>
-      </c>
-      <c r="G149">
-        <v>13</v>
-      </c>
-      <c r="H149">
-        <v>1</v>
+        <v>12.5</v>
+      </c>
+      <c r="G149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H149" s="4">
+        <v>3.5</v>
       </c>
       <c r="I149" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J149">
-        <v>7</v>
+      <c r="J149" s="6">
+        <v>6.5</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>42775</v>
+        <v>42475</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
       <c r="C150">
-        <v>51</v>
-      </c>
-      <c r="D150">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="D150" s="6">
+        <v>41</v>
       </c>
       <c r="E150">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F150">
-        <v>8</v>
-      </c>
-      <c r="G150">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="G150" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H150" t="e">
         <v>#N/A</v>
@@ -5234,31 +5275,31 @@
       <c r="I150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J150">
-        <v>5</v>
+      <c r="J150" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>42775</v>
+        <v>42486</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="C151">
-        <v>47</v>
-      </c>
-      <c r="D151">
-        <v>33.200000000000003</v>
+        <v>48</v>
+      </c>
+      <c r="D151" s="6">
+        <v>42.8</v>
       </c>
       <c r="E151">
-        <v>30.9</v>
+        <v>36.9</v>
       </c>
       <c r="F151">
-        <v>7</v>
-      </c>
-      <c r="G151">
-        <v>22.3</v>
+        <v>10.8</v>
+      </c>
+      <c r="G151" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H151" t="e">
         <v>#N/A</v>
@@ -5266,63 +5307,63 @@
       <c r="I151" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J151">
-        <v>6.6</v>
+      <c r="J151" s="6">
+        <v>9.5</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>42781</v>
+        <v>42503</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C152">
-        <v>55</v>
-      </c>
-      <c r="D152">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="D152" s="6">
+        <v>44</v>
       </c>
       <c r="E152">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F152">
-        <v>10</v>
-      </c>
-      <c r="G152">
-        <v>15</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H152" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I152" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J152">
-        <v>8</v>
+      <c r="J152" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>42852</v>
+        <v>42505</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>52</v>
-      </c>
-      <c r="D153">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="D153" s="6">
+        <v>40</v>
       </c>
       <c r="E153">
-        <v>36</v>
-      </c>
-      <c r="F153">
-        <v>7</v>
-      </c>
-      <c r="G153">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="F153" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G153" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H153" t="e">
         <v>#N/A</v>
@@ -5330,63 +5371,63 @@
       <c r="I153" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J153">
-        <v>6</v>
+      <c r="J153" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>42870</v>
+        <v>42505</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>54</v>
-      </c>
-      <c r="D154">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="D154" s="6">
+        <v>40</v>
       </c>
       <c r="E154">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F154">
-        <v>9</v>
-      </c>
-      <c r="G154">
+        <v>8</v>
+      </c>
+      <c r="G154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J154" s="6">
         <v>12</v>
-      </c>
-      <c r="H154">
-        <v>2</v>
-      </c>
-      <c r="I154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J154">
-        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>42888</v>
+        <v>42515</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C155">
-        <v>49</v>
-      </c>
-      <c r="D155">
-        <v>35.299999999999997</v>
+        <v>50</v>
+      </c>
+      <c r="D155" s="6">
+        <v>40.5</v>
       </c>
       <c r="E155">
-        <v>31.9</v>
+        <v>35.5</v>
       </c>
       <c r="F155">
-        <v>9.4</v>
-      </c>
-      <c r="G155">
-        <v>17</v>
+        <v>10.5</v>
+      </c>
+      <c r="G155" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H155" t="e">
         <v>#N/A</v>
@@ -5394,31 +5435,31 @@
       <c r="I155" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J155">
-        <v>6.4</v>
+      <c r="J155" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>42931</v>
+        <v>42566</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
       </c>
       <c r="C156">
-        <v>54</v>
-      </c>
-      <c r="D156">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="D156" s="6">
+        <v>41</v>
       </c>
       <c r="E156">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F156">
-        <v>12</v>
-      </c>
-      <c r="G156">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="G156" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -5426,31 +5467,31 @@
       <c r="I156" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J156">
-        <v>7</v>
+      <c r="J156" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>42951</v>
+        <v>42586</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
       </c>
       <c r="C157">
-        <v>51</v>
-      </c>
-      <c r="D157">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="D157" s="6">
+        <v>38</v>
       </c>
       <c r="E157">
-        <v>35</v>
-      </c>
-      <c r="F157">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="F157" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G157">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H157" t="e">
         <v>#N/A</v>
@@ -5458,127 +5499,127 @@
       <c r="I157" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J157">
-        <v>7</v>
+      <c r="J157" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>42962</v>
+        <v>42597</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C158">
-        <v>50</v>
-      </c>
-      <c r="D158">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="D158" s="6">
+        <v>35</v>
       </c>
       <c r="E158">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F158">
-        <v>8</v>
-      </c>
-      <c r="G158">
+        <v>9</v>
+      </c>
+      <c r="G158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J158" s="6">
         <v>15</v>
-      </c>
-      <c r="H158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J158">
-        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>42962</v>
+        <v>42602</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C159">
-        <v>55</v>
-      </c>
-      <c r="D159">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="D159" s="6">
+        <v>38.5</v>
       </c>
       <c r="E159">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="F159">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="G159">
-        <v>14</v>
-      </c>
-      <c r="H159">
-        <v>2</v>
+        <v>8.5</v>
+      </c>
+      <c r="H159" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I159" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>42993</v>
+        <v>42628</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
       </c>
       <c r="C160">
-        <v>53</v>
-      </c>
-      <c r="D160">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="D160" s="6">
+        <v>37</v>
       </c>
       <c r="E160">
         <v>35</v>
       </c>
       <c r="F160">
+        <v>8</v>
+      </c>
+      <c r="G160">
         <v>10</v>
       </c>
-      <c r="G160">
-        <v>13</v>
-      </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J160">
-        <v>5</v>
+      <c r="J160" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43006</v>
+        <v>42644</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C161">
-        <v>48</v>
-      </c>
-      <c r="D161">
-        <v>33.200000000000003</v>
+        <v>52</v>
+      </c>
+      <c r="D161" s="6">
+        <v>33.5</v>
       </c>
       <c r="E161">
-        <v>34.799999999999997</v>
+        <v>35.5</v>
       </c>
       <c r="F161">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="G161">
-        <v>19.600000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H161" t="e">
         <v>#N/A</v>
@@ -5586,109 +5627,109 @@
       <c r="I161" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J161">
-        <v>4.3</v>
+      <c r="J161" s="6">
+        <v>8.5</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43019</v>
+        <v>42658</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>52</v>
-      </c>
-      <c r="D162">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="D162" s="6">
+        <v>35</v>
       </c>
       <c r="E162">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F162">
+        <v>9</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J162" s="6">
         <v>8</v>
-      </c>
-      <c r="G162">
-        <v>16</v>
-      </c>
-      <c r="H162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J162">
-        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43023</v>
+        <v>42685</v>
       </c>
       <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>51</v>
+      </c>
+      <c r="D163" s="6">
+        <v>37</v>
+      </c>
+      <c r="E163">
+        <v>35</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+      <c r="G163">
+        <v>16</v>
+      </c>
+      <c r="H163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J163" s="6">
         <v>4</v>
-      </c>
-      <c r="C163">
-        <v>49</v>
-      </c>
-      <c r="D163">
-        <v>38</v>
-      </c>
-      <c r="E163">
-        <v>33</v>
-      </c>
-      <c r="F163">
-        <v>10</v>
-      </c>
-      <c r="G163">
-        <v>13</v>
-      </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="I163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J163">
-        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43041</v>
+        <v>42689</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>52</v>
-      </c>
-      <c r="D164">
+        <v>56</v>
+      </c>
+      <c r="D164" s="6">
         <v>32</v>
       </c>
       <c r="E164">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G164">
-        <v>18</v>
-      </c>
-      <c r="H164" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
       </c>
       <c r="I164" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J164">
-        <v>6</v>
+      <c r="J164" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43050</v>
+        <v>42719</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
@@ -5696,17 +5737,17 @@
       <c r="C165">
         <v>53</v>
       </c>
-      <c r="D165">
-        <v>32</v>
+      <c r="D165" s="6">
+        <v>35</v>
       </c>
       <c r="E165">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F165">
         <v>10</v>
       </c>
       <c r="G165">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5714,109 +5755,109 @@
       <c r="I165" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J165">
-        <v>6</v>
+      <c r="J165" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43054</v>
+        <v>42775</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C166">
-        <v>55</v>
-      </c>
-      <c r="D166">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="D166" s="6">
+        <v>33</v>
       </c>
       <c r="E166">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F166">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G166">
-        <v>17</v>
-      </c>
-      <c r="H166">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="H166" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I166" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J166">
-        <v>4</v>
+      <c r="J166" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43057</v>
+        <v>42775</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
       <c r="C167">
-        <v>51</v>
-      </c>
-      <c r="D167">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="D167" s="6">
+        <v>33.200000000000003</v>
       </c>
       <c r="E167">
-        <v>34</v>
+        <v>30.9</v>
       </c>
       <c r="F167">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G167">
-        <v>17</v>
-      </c>
-      <c r="H167">
-        <v>3</v>
+        <v>22.3</v>
+      </c>
+      <c r="H167" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I167" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J167">
-        <v>9</v>
+      <c r="J167" s="6">
+        <v>6.6</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43061</v>
+        <v>42781</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C168">
-        <v>52.5</v>
-      </c>
-      <c r="D168">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="D168" s="6">
+        <v>31</v>
       </c>
       <c r="E168">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F168">
         <v>10</v>
       </c>
       <c r="G168">
-        <v>13</v>
-      </c>
-      <c r="H168" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
       </c>
       <c r="I168" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J168">
-        <v>7</v>
+      <c r="J168" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43063</v>
+        <v>42852</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
@@ -5824,17 +5865,17 @@
       <c r="C169">
         <v>52</v>
       </c>
-      <c r="D169">
-        <v>35</v>
+      <c r="D169" s="6">
+        <v>34</v>
       </c>
       <c r="E169">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G169">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H169" t="e">
         <v>#N/A</v>
@@ -5842,31 +5883,31 @@
       <c r="I169" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J169">
-        <v>7</v>
+      <c r="J169" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43085</v>
+        <v>42870</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
       </c>
       <c r="C170">
-        <v>55</v>
-      </c>
-      <c r="D170">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="D170" s="6">
+        <v>34</v>
       </c>
       <c r="E170">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F170">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G170">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -5874,31 +5915,31 @@
       <c r="I170" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J170">
-        <v>5</v>
+      <c r="J170" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43139</v>
+        <v>42888</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C171">
-        <v>52</v>
-      </c>
-      <c r="D171">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="D171" s="6">
+        <v>35.299999999999997</v>
       </c>
       <c r="E171">
-        <v>37</v>
+        <v>31.9</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="G171">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H171" t="e">
         <v>#N/A</v>
@@ -5906,45 +5947,45 @@
       <c r="I171" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J171">
-        <v>7</v>
+      <c r="J171" s="6">
+        <v>6.4</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43231</v>
+        <v>42931</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C172">
-        <v>53</v>
-      </c>
-      <c r="D172">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="D172" s="6">
+        <v>34</v>
       </c>
       <c r="E172">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G172">
         <v>12</v>
       </c>
-      <c r="H172" t="e">
-        <v>#N/A</v>
+      <c r="H172">
+        <v>2</v>
       </c>
       <c r="I172" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J172">
-        <v>5</v>
+      <c r="J172" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43321</v>
+        <v>42951</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -5952,17 +5993,17 @@
       <c r="C173">
         <v>51</v>
       </c>
-      <c r="D173">
-        <v>37</v>
+      <c r="D173" s="6">
+        <v>36</v>
       </c>
       <c r="E173">
         <v>35</v>
       </c>
       <c r="F173">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G173">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H173" t="e">
         <v>#N/A</v>
@@ -5970,127 +6011,127 @@
       <c r="I173" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43414</v>
+        <v>42962</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C174">
-        <v>53</v>
-      </c>
-      <c r="D174">
+        <v>50</v>
+      </c>
+      <c r="D174" s="6">
         <v>34</v>
       </c>
       <c r="E174">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F174">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G174">
-        <v>10</v>
-      </c>
-      <c r="H174">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="H174" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I174" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J174">
-        <v>9</v>
+      <c r="J174" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43510</v>
+        <v>42962</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C175">
-        <v>52</v>
-      </c>
-      <c r="D175">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="D175" s="6">
+        <v>33</v>
       </c>
       <c r="E175">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F175">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G175">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43706</v>
+        <v>42993</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C176">
-        <v>49</v>
-      </c>
-      <c r="D176">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="D176" s="6">
+        <v>35</v>
       </c>
       <c r="E176">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F176">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G176">
         <v>13</v>
       </c>
-      <c r="H176" t="e">
-        <v>#N/A</v>
+      <c r="H176">
+        <v>2</v>
       </c>
       <c r="I176" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43867</v>
+        <v>43006</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C177">
-        <v>50</v>
-      </c>
-      <c r="D177">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="D177" s="6">
+        <v>33.200000000000003</v>
       </c>
       <c r="E177">
-        <v>34</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="G177">
-        <v>15</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H177" t="e">
         <v>#N/A</v>
@@ -6098,77 +6139,77 @@
       <c r="I177" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J177">
-        <v>6</v>
+      <c r="J177" s="6">
+        <v>4.3</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43986</v>
+        <v>43019</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C178">
-        <v>48</v>
-      </c>
-      <c r="D178">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="D178" s="6">
+        <v>34</v>
       </c>
       <c r="E178">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F178">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G178">
-        <v>12</v>
-      </c>
-      <c r="H178">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="H178" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I178" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44038</v>
+        <v>43023</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C179">
         <v>49</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="6">
         <v>38</v>
       </c>
       <c r="E179">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F179">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G179">
-        <v>11</v>
-      </c>
-      <c r="H179" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
       </c>
       <c r="I179" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44102</v>
+        <v>43041</v>
       </c>
       <c r="B180" t="s">
         <v>9</v>
@@ -6176,25 +6217,537 @@
       <c r="C180">
         <v>52</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="6">
+        <v>32</v>
+      </c>
+      <c r="E180">
+        <v>35</v>
+      </c>
+      <c r="F180">
+        <v>9</v>
+      </c>
+      <c r="G180">
+        <v>18</v>
+      </c>
+      <c r="H180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J180" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>43050</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>53</v>
+      </c>
+      <c r="D181" s="6">
+        <v>32</v>
+      </c>
+      <c r="E181">
+        <v>36</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+      <c r="G181">
+        <v>15</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J181" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>43054</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>55</v>
+      </c>
+      <c r="D182" s="6">
+        <v>29</v>
+      </c>
+      <c r="E182">
+        <v>39</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182">
+        <v>17</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J182" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>43057</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>51</v>
+      </c>
+      <c r="D183" s="6">
+        <v>30</v>
+      </c>
+      <c r="E183">
+        <v>34</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+      <c r="G183">
+        <v>17</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
+      </c>
+      <c r="I183" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J183" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>43061</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>52.5</v>
+      </c>
+      <c r="D184" s="6">
+        <v>34</v>
+      </c>
+      <c r="E184">
+        <v>36</v>
+      </c>
+      <c r="F184">
+        <v>10</v>
+      </c>
+      <c r="G184">
+        <v>13</v>
+      </c>
+      <c r="H184" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I184" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J184" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>43063</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <v>52</v>
+      </c>
+      <c r="D185" s="6">
+        <v>35</v>
+      </c>
+      <c r="E185">
         <v>37</v>
       </c>
-      <c r="E180">
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185">
+        <v>12</v>
+      </c>
+      <c r="H185" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I185" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J185" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>43085</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>55</v>
+      </c>
+      <c r="D186" s="6">
+        <v>30</v>
+      </c>
+      <c r="E186">
+        <v>38</v>
+      </c>
+      <c r="F186">
+        <v>11</v>
+      </c>
+      <c r="G186">
+        <v>14</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J186" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>43139</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <v>52</v>
+      </c>
+      <c r="D187" s="6">
+        <v>36</v>
+      </c>
+      <c r="E187">
         <v>37</v>
       </c>
-      <c r="F180">
+      <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187">
+        <v>10</v>
+      </c>
+      <c r="H187" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I187" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J187" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>53</v>
+      </c>
+      <c r="D188" s="6">
+        <v>35</v>
+      </c>
+      <c r="E188">
+        <v>38</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188">
         <v>12</v>
       </c>
-      <c r="G180">
-        <v>9</v>
-      </c>
-      <c r="H180">
-        <v>2</v>
-      </c>
-      <c r="I180" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J180">
+      <c r="H188" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I188" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J188" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>43321</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <v>51</v>
+      </c>
+      <c r="D189" s="6">
+        <v>37</v>
+      </c>
+      <c r="E189">
+        <v>35</v>
+      </c>
+      <c r="F189">
+        <v>11</v>
+      </c>
+      <c r="G189">
+        <v>10</v>
+      </c>
+      <c r="H189" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I189" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J189" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>43414</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <v>53</v>
+      </c>
+      <c r="D190" s="6">
+        <v>34</v>
+      </c>
+      <c r="E190">
+        <v>36</v>
+      </c>
+      <c r="F190">
+        <v>11</v>
+      </c>
+      <c r="G190">
+        <v>10</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J190" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>43510</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>52</v>
+      </c>
+      <c r="D191" s="6">
+        <v>35</v>
+      </c>
+      <c r="E191">
+        <v>35</v>
+      </c>
+      <c r="F191">
+        <v>11</v>
+      </c>
+      <c r="G191">
+        <v>8</v>
+      </c>
+      <c r="H191">
+        <v>4</v>
+      </c>
+      <c r="I191" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J191" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>43706</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>49</v>
+      </c>
+      <c r="D192" s="6">
+        <v>37</v>
+      </c>
+      <c r="E192">
+        <v>32</v>
+      </c>
+      <c r="F192">
+        <v>13</v>
+      </c>
+      <c r="G192">
+        <v>13</v>
+      </c>
+      <c r="H192" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I192" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J192" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193">
+        <v>50</v>
+      </c>
+      <c r="D193" s="6">
+        <v>35</v>
+      </c>
+      <c r="E193">
+        <v>34</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193">
+        <v>15</v>
+      </c>
+      <c r="H193" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I193" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J193" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194">
+        <v>48</v>
+      </c>
+      <c r="D194" s="6">
+        <v>38</v>
+      </c>
+      <c r="E194">
+        <v>32</v>
+      </c>
+      <c r="F194">
+        <v>12</v>
+      </c>
+      <c r="G194">
+        <v>12</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J194" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>49</v>
+      </c>
+      <c r="D195" s="6">
+        <v>38</v>
+      </c>
+      <c r="E195">
+        <v>34</v>
+      </c>
+      <c r="F195">
+        <v>12</v>
+      </c>
+      <c r="G195">
+        <v>11</v>
+      </c>
+      <c r="H195" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I195" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J195" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <v>52</v>
+      </c>
+      <c r="D196" s="6">
+        <v>37</v>
+      </c>
+      <c r="E196">
+        <v>37</v>
+      </c>
+      <c r="F196">
+        <v>12</v>
+      </c>
+      <c r="G196">
+        <v>9</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J196" s="6">
         <v>3</v>
       </c>
     </row>

--- a/python/Data/poll-data-qld.xlsx
+++ b/python/Data/poll-data-qld.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE2CCD-5301-453D-AB16-6593F9469B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C6F372-7FA8-4046-BE89-F19670FE831C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23775" yWindow="3765" windowWidth="12570" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="33540" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="17">
   <si>
     <t>MidDate</t>
   </si>
@@ -410,12 +411,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U196"/>
+  <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="600" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,22 +1349,22 @@
         <v>38967</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>56.5</v>
       </c>
       <c r="D28" s="6">
-        <v>45</v>
-      </c>
-      <c r="E28">
-        <v>39</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>0.5</v>
+        <v>38</v>
+      </c>
+      <c r="E28" s="6">
+        <v>48</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H28" t="e">
         <v>#N/A</v>
@@ -1371,31 +1372,31 @@
       <c r="I28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J28" s="6">
-        <v>7.5</v>
+      <c r="J28" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>39037</v>
+        <v>38967</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>12</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
       </c>
       <c r="H29" t="e">
         <v>#N/A</v>
@@ -1404,27 +1405,27 @@
         <v>#N/A</v>
       </c>
       <c r="J29" s="6">
-        <v>11</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>39217</v>
+        <v>39037</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D30" s="6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G30" t="e">
         <v>#N/A</v>
@@ -1436,27 +1437,27 @@
         <v>#N/A</v>
       </c>
       <c r="J30" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>39240</v>
+        <v>39217</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D31" s="6">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G31" t="e">
         <v>#N/A</v>
@@ -1468,27 +1469,27 @@
         <v>#N/A</v>
       </c>
       <c r="J31" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>39309</v>
+        <v>39240</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G32" t="e">
         <v>#N/A</v>
@@ -1500,27 +1501,27 @@
         <v>#N/A</v>
       </c>
       <c r="J32" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>39321</v>
+        <v>39309</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" t="e">
         <v>#N/A</v>
@@ -1532,27 +1533,27 @@
         <v>#N/A</v>
       </c>
       <c r="J33" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>39345</v>
+        <v>39321</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G34" t="e">
         <v>#N/A</v>
@@ -1564,27 +1565,27 @@
         <v>#N/A</v>
       </c>
       <c r="J34" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>39401</v>
+        <v>39345</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
@@ -1596,27 +1597,27 @@
         <v>#N/A</v>
       </c>
       <c r="J35" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>39457</v>
+        <v>39401</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D36" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G36" t="e">
         <v>#N/A</v>
@@ -1628,24 +1629,24 @@
         <v>#N/A</v>
       </c>
       <c r="J36" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>39493</v>
+        <v>39457</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D37" s="6">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -1660,27 +1661,27 @@
         <v>#N/A</v>
       </c>
       <c r="J37" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>39505</v>
+        <v>39493</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="6">
         <v>32</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" t="e">
         <v>#N/A</v>
@@ -1692,27 +1693,27 @@
         <v>#N/A</v>
       </c>
       <c r="J38" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39583</v>
+        <v>39505</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D39" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" t="e">
         <v>#N/A</v>
@@ -1724,27 +1725,27 @@
         <v>#N/A</v>
       </c>
       <c r="J39" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39618</v>
+        <v>39583</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D40" s="6">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>43</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" t="e">
         <v>#N/A</v>
@@ -1756,27 +1757,27 @@
         <v>#N/A</v>
       </c>
       <c r="J40" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39661</v>
+        <v>39618</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>44</v>
-      </c>
-      <c r="F41" t="e">
-        <v>#N/A</v>
+        <v>43</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
       </c>
       <c r="G41" t="e">
         <v>#N/A</v>
@@ -1787,28 +1788,28 @@
       <c r="I41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J41" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J41" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>39675</v>
+        <v>39661</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>43</v>
-      </c>
-      <c r="F42">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G42" t="e">
         <v>#N/A</v>
@@ -1819,28 +1820,28 @@
       <c r="I42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J42" s="6">
-        <v>11</v>
+      <c r="J42" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>39719</v>
+        <v>39675</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="6">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>43</v>
       </c>
-      <c r="F43" t="e">
-        <v>#N/A</v>
+      <c r="F43">
+        <v>9</v>
       </c>
       <c r="G43" t="e">
         <v>#N/A</v>
@@ -1851,28 +1852,28 @@
       <c r="I43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J43" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J43" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>39767</v>
+        <v>39719</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D44" s="6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E44">
-        <v>45</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G44" t="e">
         <v>#N/A</v>
@@ -1883,28 +1884,28 @@
       <c r="I44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J44" s="6">
-        <v>10</v>
+      <c r="J44" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>39845</v>
+        <v>39767</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D45" s="6">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" t="e">
         <v>#N/A</v>
@@ -1921,22 +1922,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>39876</v>
+        <v>39845</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D46" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>41</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" t="e">
         <v>#N/A</v>
@@ -1948,27 +1949,27 @@
         <v>#N/A</v>
       </c>
       <c r="J46" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>39891</v>
+        <v>39876</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
       <c r="C47">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="D47" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" t="e">
         <v>#N/A</v>
@@ -1980,27 +1981,27 @@
         <v>#N/A</v>
       </c>
       <c r="J47" s="6">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>39983</v>
+        <v>39891</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>49.9</v>
       </c>
       <c r="D48" s="6">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E48">
-        <v>36</v>
-      </c>
-      <c r="F48" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
       </c>
       <c r="G48" t="e">
         <v>#N/A</v>
@@ -2011,28 +2012,28 @@
       <c r="I48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J48" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J48" s="6">
+        <v>8.5</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>40025</v>
+        <v>39983</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D49" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49">
-        <v>30</v>
-      </c>
-      <c r="F49">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G49" t="e">
         <v>#N/A</v>
@@ -2043,28 +2044,28 @@
       <c r="I49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J49" s="6">
-        <v>10</v>
+      <c r="J49" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>40068</v>
+        <v>40025</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D50" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E50">
-        <v>35</v>
-      </c>
-      <c r="F50" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
       </c>
       <c r="G50" t="e">
         <v>#N/A</v>
@@ -2075,28 +2076,28 @@
       <c r="I50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J50" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J50" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>40116</v>
+        <v>40068</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>45</v>
-      </c>
-      <c r="D51" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F51">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="D51" s="6">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>35</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G51" t="e">
         <v>#N/A</v>
@@ -2113,22 +2114,22 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>40148</v>
+        <v>40116</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52">
-        <v>46</v>
-      </c>
-      <c r="D52" s="6">
-        <v>43</v>
-      </c>
-      <c r="E52">
-        <v>34</v>
-      </c>
-      <c r="F52" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="D52" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
       </c>
       <c r="G52" t="e">
         <v>#N/A</v>
@@ -2145,22 +2146,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>40221</v>
+        <v>40148</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D53" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E53">
-        <v>31</v>
-      </c>
-      <c r="F53">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G53" t="e">
         <v>#N/A</v>
@@ -2171,28 +2172,28 @@
       <c r="I53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J53" s="6">
-        <v>8</v>
+      <c r="J53" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>40334</v>
+        <v>40221</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D54" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G54" t="e">
         <v>#N/A</v>
@@ -2209,22 +2210,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>40428</v>
+        <v>40334</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D55" s="6">
         <v>44</v>
       </c>
       <c r="E55">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G55" t="e">
         <v>#N/A</v>
@@ -2236,27 +2237,27 @@
         <v>#N/A</v>
       </c>
       <c r="J55" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>40452</v>
+        <v>40428</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D56" s="6">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E56">
         <v>29</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G56" t="e">
         <v>#N/A</v>
@@ -2268,27 +2269,27 @@
         <v>#N/A</v>
       </c>
       <c r="J56" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>40497</v>
+        <v>40452</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>41</v>
       </c>
       <c r="D57" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G57" t="e">
         <v>#N/A</v>
@@ -2300,59 +2301,59 @@
         <v>#N/A</v>
       </c>
       <c r="J57" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>40507</v>
+        <v>40497</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D58" s="6">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E58">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F58">
+        <v>13</v>
+      </c>
+      <c r="G58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J58" s="6">
         <v>16</v>
-      </c>
-      <c r="G58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J58" s="6">
-        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>40589</v>
+        <v>40507</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D59" s="6">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E59">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G59" t="e">
         <v>#N/A</v>
@@ -2364,27 +2365,27 @@
         <v>#N/A</v>
       </c>
       <c r="J59" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>40592</v>
+        <v>40589</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D60" s="6">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E60">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G60" t="e">
         <v>#N/A</v>
@@ -2396,12 +2397,12 @@
         <v>#N/A</v>
       </c>
       <c r="J60" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>40627</v>
+        <v>40592</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -2410,13 +2411,13 @@
         <v>45</v>
       </c>
       <c r="D61" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" t="e">
         <v>#N/A</v>
@@ -2433,54 +2434,54 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>40679</v>
+        <v>40627</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D62" s="6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E62">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J62" s="6">
         <v>7</v>
-      </c>
-      <c r="G62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J62" s="6">
-        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>40683</v>
+        <v>40679</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63">
-        <v>30</v>
-      </c>
-      <c r="F63" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
       </c>
       <c r="G63" t="e">
         <v>#N/A</v>
@@ -2491,28 +2492,28 @@
       <c r="I63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J63" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J63" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>40770</v>
+        <v>40683</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>39</v>
       </c>
       <c r="D64" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E64">
-        <v>27</v>
-      </c>
-      <c r="F64">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G64" t="e">
         <v>#N/A</v>
@@ -2523,28 +2524,28 @@
       <c r="I64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J64" s="6">
-        <v>15</v>
+      <c r="J64" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>40780</v>
+        <v>40770</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D65" s="6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E65">
-        <v>28</v>
-      </c>
-      <c r="F65" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
       </c>
       <c r="G65" t="e">
         <v>#N/A</v>
@@ -2555,28 +2556,28 @@
       <c r="I65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J65" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J65" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>40862</v>
+        <v>40780</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D66" s="6">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E66">
-        <v>31</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G66" t="e">
         <v>#N/A</v>
@@ -2587,25 +2588,25 @@
       <c r="I66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J66" s="6">
-        <v>15</v>
+      <c r="J66" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>40865</v>
+        <v>40862</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D67" s="6">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E67">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -2613,31 +2614,31 @@
       <c r="G67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H67">
-        <v>4</v>
+      <c r="H67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I67" t="e">
         <v>#N/A</v>
       </c>
       <c r="J67" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>40933</v>
+        <v>40865</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D68" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -2652,39 +2653,39 @@
         <v>#N/A</v>
       </c>
       <c r="J68" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>40954</v>
+        <v>40933</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H69" t="e">
-        <v>#N/A</v>
+      <c r="H69">
+        <v>4</v>
       </c>
       <c r="I69" t="e">
         <v>#N/A</v>
       </c>
       <c r="J69" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2695,164 +2696,164 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D70" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>30</v>
       </c>
       <c r="F70">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H70">
-        <v>5</v>
+      <c r="H70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
       </c>
       <c r="J70" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>40983</v>
+        <v>40954</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>40</v>
       </c>
       <c r="D71" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E71">
         <v>30</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" t="e">
         <v>#N/A</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I71" t="e">
         <v>#N/A</v>
       </c>
       <c r="J71" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>40989</v>
+        <v>40983</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>39.200000000000003</v>
+        <v>40</v>
       </c>
       <c r="D72" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E72">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J72" s="6">
         <v>6</v>
-      </c>
-      <c r="G72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H72">
-        <v>9</v>
-      </c>
-      <c r="I72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J72" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>41051</v>
+        <v>40989</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>33</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D73" s="6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E73">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G73" t="e">
         <v>#N/A</v>
       </c>
       <c r="H73">
+        <v>9</v>
+      </c>
+      <c r="I73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J73" s="6">
         <v>7</v>
-      </c>
-      <c r="I73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="6">
-        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41136</v>
+        <v>41051</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D74" s="6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G74" t="e">
         <v>#N/A</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I74" t="e">
         <v>#N/A</v>
       </c>
       <c r="J74" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41145</v>
+        <v>41136</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>40</v>
@@ -2870,109 +2871,109 @@
         <v>#N/A</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I75" t="e">
         <v>#N/A</v>
       </c>
       <c r="J75" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41166</v>
+        <v>41145</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D76" s="6">
-        <v>44.7</v>
+        <v>48</v>
       </c>
       <c r="E76">
-        <v>34.700000000000003</v>
+        <v>30</v>
       </c>
       <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H76">
         <v>7</v>
       </c>
-      <c r="G76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H76">
-        <v>9.4</v>
-      </c>
       <c r="I76" t="e">
         <v>#N/A</v>
       </c>
       <c r="J76" s="6">
-        <v>4.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41228</v>
+        <v>41166</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D77" s="6">
-        <v>42</v>
+        <v>44.7</v>
       </c>
       <c r="E77">
-        <v>31</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" t="e">
         <v>#N/A</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>9.4</v>
       </c>
       <c r="I77" t="e">
         <v>#N/A</v>
       </c>
       <c r="J77" s="6">
-        <v>15</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41236</v>
+        <v>41228</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D78" s="6">
         <v>42</v>
       </c>
       <c r="E78">
-        <v>34.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="F78">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="G78" t="e">
         <v>#N/A</v>
       </c>
       <c r="H78">
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="I78" t="e">
         <v>#N/A</v>
       </c>
       <c r="J78" s="6">
-        <v>5.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2980,191 +2981,191 @@
         <v>41236</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D79" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E79">
-        <v>33</v>
-      </c>
-      <c r="F79" t="e">
-        <v>#N/A</v>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F79">
+        <v>9.5</v>
       </c>
       <c r="G79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H79" t="e">
-        <v>#N/A</v>
+      <c r="H79">
+        <v>8.9</v>
       </c>
       <c r="I79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J79" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J79" s="6">
+        <v>5.4</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>41244</v>
+        <v>41236</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D80" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E80">
-        <v>35</v>
-      </c>
-      <c r="F80">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H80">
-        <v>7</v>
+      <c r="H80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J80" s="6">
-        <v>9</v>
+      <c r="J80" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41257</v>
+        <v>41244</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D81" s="6">
-        <v>41.9</v>
+        <v>41</v>
       </c>
       <c r="E81">
-        <v>32.1</v>
+        <v>35</v>
       </c>
       <c r="F81">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="G81" t="e">
         <v>#N/A</v>
       </c>
       <c r="H81">
-        <v>12.1</v>
+        <v>7</v>
       </c>
       <c r="I81" t="e">
         <v>#N/A</v>
       </c>
       <c r="J81" s="6">
-        <v>5.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41292</v>
+        <v>41257</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" s="6">
-        <v>42.5</v>
+        <v>41.9</v>
       </c>
       <c r="E82">
-        <v>34.9</v>
+        <v>32.1</v>
       </c>
       <c r="F82">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G82" t="e">
         <v>#N/A</v>
       </c>
       <c r="H82">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
       <c r="I82" t="e">
         <v>#N/A</v>
       </c>
       <c r="J82" s="6">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41320</v>
+        <v>41292</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D83" s="6">
-        <v>49</v>
+        <v>42.5</v>
       </c>
       <c r="E83">
-        <v>27</v>
+        <v>34.9</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="G83" t="e">
         <v>#N/A</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="I83" t="e">
         <v>#N/A</v>
       </c>
       <c r="J83" s="6">
-        <v>15</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41327</v>
+        <v>41320</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D84" s="6">
-        <v>47.1</v>
+        <v>49</v>
       </c>
       <c r="E84">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="F84">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="G84" t="e">
         <v>#N/A</v>
       </c>
       <c r="H84">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="I84" t="e">
         <v>#N/A</v>
       </c>
       <c r="J84" s="6">
-        <v>3.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3172,159 +3173,159 @@
         <v>41327</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D85" s="6">
-        <v>43</v>
+        <v>47.1</v>
       </c>
       <c r="E85">
-        <v>34</v>
-      </c>
-      <c r="F85" t="e">
-        <v>#N/A</v>
+        <v>28.9</v>
+      </c>
+      <c r="F85">
+        <v>7.9</v>
       </c>
       <c r="G85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H85" t="e">
-        <v>#N/A</v>
+      <c r="H85">
+        <v>11.5</v>
       </c>
       <c r="I85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J85" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J85" s="6">
+        <v>3.6</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>41348</v>
+        <v>41327</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D86" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E86">
-        <v>29</v>
-      </c>
-      <c r="F86">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="F86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H86">
-        <v>7</v>
+      <c r="H86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J86" s="6">
-        <v>9</v>
+      <c r="J86" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41355</v>
+        <v>41348</v>
       </c>
       <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>42</v>
+      </c>
+      <c r="D87" s="6">
+        <v>45</v>
+      </c>
+      <c r="E87">
+        <v>29</v>
+      </c>
+      <c r="F87">
         <v>10</v>
       </c>
-      <c r="C87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D87" s="6">
-        <v>47.8</v>
-      </c>
-      <c r="E87">
-        <v>30.2</v>
-      </c>
-      <c r="F87">
-        <v>8</v>
-      </c>
       <c r="G87" t="e">
         <v>#N/A</v>
       </c>
       <c r="H87">
-        <v>10.1</v>
+        <v>7</v>
       </c>
       <c r="I87" t="e">
         <v>#N/A</v>
       </c>
       <c r="J87" s="6">
-        <v>3.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41409</v>
+        <v>41355</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="C88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D88" s="6">
-        <v>44</v>
+        <v>47.8</v>
       </c>
       <c r="E88">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" t="e">
         <v>#N/A</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="I88" t="e">
         <v>#N/A</v>
       </c>
       <c r="J88" s="6">
-        <v>14</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41416</v>
+        <v>41409</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D89" s="6">
         <v>44</v>
       </c>
       <c r="E89">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G89" t="e">
         <v>#N/A</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I89" t="e">
         <v>#N/A</v>
       </c>
       <c r="J89" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3332,127 +3333,127 @@
         <v>41416</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>43</v>
       </c>
       <c r="D90" s="6">
-        <v>44.6</v>
+        <v>44</v>
       </c>
       <c r="E90">
-        <v>28.5</v>
+        <v>32</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G90" t="e">
         <v>#N/A</v>
       </c>
       <c r="H90">
-        <v>10.4</v>
+        <v>8</v>
       </c>
       <c r="I90" t="e">
         <v>#N/A</v>
       </c>
       <c r="J90" s="6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>41465</v>
+        <v>41416</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
-      <c r="C91">
-        <v>47</v>
+      <c r="C91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D91" s="6">
-        <v>43.3</v>
+        <v>44.6</v>
       </c>
       <c r="E91">
-        <v>37</v>
+        <v>28.5</v>
       </c>
       <c r="F91">
-        <v>5.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="G91" t="e">
         <v>#N/A</v>
       </c>
       <c r="H91">
-        <v>5.7</v>
-      </c>
-      <c r="I91">
-        <v>4.5</v>
+        <v>10.4</v>
+      </c>
+      <c r="I91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J91" s="6">
-        <v>4.4000000000000004</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41495</v>
+        <v>41465</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D92" s="6">
-        <v>47</v>
+        <v>43.3</v>
       </c>
       <c r="E92">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G92" t="e">
         <v>#N/A</v>
       </c>
       <c r="H92">
-        <v>6</v>
-      </c>
-      <c r="I92" t="e">
-        <v>#N/A</v>
+        <v>5.7</v>
+      </c>
+      <c r="I92">
+        <v>4.5</v>
       </c>
       <c r="J92" s="6">
-        <v>6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41592</v>
+        <v>41495</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>43</v>
       </c>
       <c r="D93" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E93">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H93" t="e">
-        <v>#N/A</v>
+      <c r="H93">
+        <v>6</v>
       </c>
       <c r="I93" t="e">
         <v>#N/A</v>
       </c>
       <c r="J93" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3460,7 +3461,7 @@
         <v>41592</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>43</v>
@@ -3477,31 +3478,31 @@
       <c r="G94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H94">
-        <v>5</v>
+      <c r="H94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I94" t="e">
         <v>#N/A</v>
       </c>
       <c r="J94" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>41593</v>
+        <v>41592</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C95">
+        <v>43</v>
+      </c>
+      <c r="D95" s="6">
         <v>45</v>
       </c>
-      <c r="D95" s="6">
-        <v>40</v>
-      </c>
       <c r="E95">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F95">
         <v>8</v>
@@ -3509,14 +3510,14 @@
       <c r="G95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H95" t="e">
-        <v>#N/A</v>
+      <c r="H95">
+        <v>5</v>
       </c>
       <c r="I95" t="e">
         <v>#N/A</v>
       </c>
       <c r="J95" s="6">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3524,51 +3525,51 @@
         <v>41593</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D96" s="6">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E96">
         <v>32</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H96">
-        <v>3</v>
-      </c>
-      <c r="I96">
-        <v>6</v>
+      <c r="H96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J96" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>41623</v>
+        <v>41593</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
       <c r="C97">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D97" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E97">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G97" t="e">
         <v>#N/A</v>
@@ -3577,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="I97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J97" s="6">
         <v>6</v>
@@ -3585,22 +3586,22 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41654</v>
+        <v>41623</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D98" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E98">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98" t="e">
         <v>#N/A</v>
@@ -3609,56 +3610,56 @@
         <v>3</v>
       </c>
       <c r="I98">
+        <v>9</v>
+      </c>
+      <c r="J98" s="6">
         <v>6</v>
-      </c>
-      <c r="J98" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41679</v>
+        <v>41654</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D99" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E99">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I99" t="e">
-        <v>#N/A</v>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
       </c>
       <c r="J99" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41685</v>
+        <v>41679</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D100" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E100">
         <v>36</v>
@@ -3676,7 +3677,7 @@
         <v>#N/A</v>
       </c>
       <c r="J100" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3684,16 +3685,16 @@
         <v>41685</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D101" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E101">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F101">
         <v>8</v>
@@ -3701,142 +3702,142 @@
       <c r="G101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H101">
-        <v>2</v>
-      </c>
-      <c r="I101">
-        <v>7</v>
+      <c r="H101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J101" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41713</v>
+        <v>41685</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D102" s="6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E102">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>7</v>
       </c>
-      <c r="G102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H102">
-        <v>3</v>
-      </c>
-      <c r="I102">
-        <v>8</v>
-      </c>
       <c r="J102" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41731</v>
+        <v>41713</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="e">
-        <v>#N/A</v>
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>47</v>
       </c>
       <c r="D103" s="6">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="E103">
-        <v>35.1</v>
+        <v>34</v>
       </c>
       <c r="F103">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="G103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H103" t="e">
-        <v>#N/A</v>
+      <c r="H103">
+        <v>3</v>
       </c>
       <c r="I103">
         <v>8</v>
       </c>
       <c r="J103" s="6">
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41744</v>
+        <v>41731</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="C104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D104" s="6">
-        <v>36</v>
+        <v>39.1</v>
       </c>
       <c r="E104">
-        <v>40</v>
+        <v>35.1</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="G104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H104">
-        <v>3</v>
+      <c r="H104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I104">
         <v>8</v>
       </c>
       <c r="J104" s="6">
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41774</v>
+        <v>41744</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D105" s="6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E105">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F105">
+        <v>7</v>
+      </c>
+      <c r="G105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>8</v>
       </c>
-      <c r="G105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="J105" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3844,83 +3845,83 @@
         <v>41774</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D106" s="6">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E106">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H106">
-        <v>2</v>
-      </c>
-      <c r="I106">
-        <v>12</v>
+      <c r="H106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J106" s="6">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41782</v>
+        <v>41774</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D107" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E107">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F107">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H107" t="e">
-        <v>#N/A</v>
+      <c r="H107">
+        <v>2</v>
       </c>
       <c r="I107">
+        <v>12</v>
+      </c>
+      <c r="J107" s="6">
         <v>5</v>
-      </c>
-      <c r="J107" s="6">
-        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41795</v>
+        <v>41782</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108">
-        <v>46.4</v>
+        <v>45</v>
       </c>
       <c r="D108" s="6">
-        <v>40.9</v>
+        <v>43</v>
       </c>
       <c r="E108">
         <v>34</v>
       </c>
       <c r="F108">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="G108" t="e">
         <v>#N/A</v>
@@ -3929,30 +3930,30 @@
         <v>#N/A</v>
       </c>
       <c r="I108">
-        <v>13.6</v>
+        <v>5</v>
       </c>
       <c r="J108" s="6">
-        <v>6.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41823</v>
+        <v>41795</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109">
-        <v>49</v>
+        <v>46.4</v>
       </c>
       <c r="D109" s="6">
-        <v>38.700000000000003</v>
+        <v>40.9</v>
       </c>
       <c r="E109">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F109">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="G109" t="e">
         <v>#N/A</v>
@@ -3961,27 +3962,27 @@
         <v>#N/A</v>
       </c>
       <c r="I109">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
       <c r="J109" s="6">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41842</v>
+        <v>41823</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
-      <c r="C110" t="e">
-        <v>#N/A</v>
+      <c r="C110">
+        <v>49</v>
       </c>
       <c r="D110" s="6">
-        <v>37.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E110">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F110">
         <v>6.1</v>
@@ -3989,78 +3990,78 @@
       <c r="G110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H110">
-        <v>3.4</v>
+      <c r="H110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I110">
-        <v>13.4</v>
+        <v>15.4</v>
       </c>
       <c r="J110" s="6">
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41858</v>
+        <v>41842</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
-      <c r="C111">
-        <v>48</v>
+      <c r="C111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D111" s="6">
-        <v>34.4</v>
+        <v>37.6</v>
       </c>
       <c r="E111">
-        <v>41</v>
+        <v>34.6</v>
       </c>
       <c r="F111">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="G111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H111" t="e">
-        <v>#N/A</v>
+      <c r="H111">
+        <v>3.4</v>
       </c>
       <c r="I111">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="J111" s="6">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41866</v>
+        <v>41858</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112">
         <v>48</v>
       </c>
       <c r="D112" s="6">
-        <v>39</v>
+        <v>34.4</v>
       </c>
       <c r="E112">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H112">
-        <v>3</v>
+      <c r="H112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I112">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="J112" s="6">
-        <v>3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4068,83 +4069,83 @@
         <v>41866</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D113" s="6">
         <v>39</v>
       </c>
       <c r="E113">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I113" t="e">
-        <v>#N/A</v>
+      <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>12</v>
       </c>
       <c r="J113" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41886</v>
+        <v>41866</v>
       </c>
       <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>46</v>
+      </c>
+      <c r="D114" s="6">
+        <v>39</v>
+      </c>
+      <c r="E114">
+        <v>32</v>
+      </c>
+      <c r="F114">
         <v>10</v>
       </c>
-      <c r="C114">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="E114">
-        <v>36</v>
-      </c>
-      <c r="F114">
-        <v>6</v>
-      </c>
       <c r="G114" t="e">
         <v>#N/A</v>
       </c>
       <c r="H114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I114">
-        <v>9.5</v>
+      <c r="I114" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J114" s="6">
-        <v>7.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41910</v>
+        <v>41886</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C115">
         <v>49</v>
       </c>
       <c r="D115" s="6">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="E115">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="F115">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G115" t="e">
         <v>#N/A</v>
@@ -4153,30 +4154,30 @@
         <v>#N/A</v>
       </c>
       <c r="I115">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="J115" s="6">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41922</v>
+        <v>41910</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C116">
         <v>49</v>
       </c>
       <c r="D116" s="6">
-        <v>40.9</v>
+        <v>42</v>
       </c>
       <c r="E116">
-        <v>36.6</v>
+        <v>35.5</v>
       </c>
       <c r="F116">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="G116" t="e">
         <v>#N/A</v>
@@ -4185,30 +4186,30 @@
         <v>#N/A</v>
       </c>
       <c r="I116">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="J116" s="6">
-        <v>9.3000000000000007</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41958</v>
+        <v>41922</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D117" s="6">
-        <v>37</v>
+        <v>40.9</v>
       </c>
       <c r="E117">
-        <v>36</v>
+        <v>36.6</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="G117" t="e">
         <v>#N/A</v>
@@ -4216,19 +4217,19 @@
       <c r="H117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I117" t="e">
-        <v>#N/A</v>
+      <c r="I117">
+        <v>7.2</v>
       </c>
       <c r="J117" s="6">
-        <v>17</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41962</v>
+        <v>41958</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>50</v>
@@ -4237,10 +4238,10 @@
         <v>37</v>
       </c>
       <c r="E118">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G118" t="e">
         <v>#N/A</v>
@@ -4248,31 +4249,31 @@
       <c r="H118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I118">
-        <v>7</v>
+      <c r="I118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J118" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41971</v>
+        <v>41962</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D119" s="6">
-        <v>39.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="E119">
-        <v>37.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="F119">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="G119" t="e">
         <v>#N/A</v>
@@ -4280,95 +4281,95 @@
       <c r="H119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I119" s="5">
-        <v>6.5</v>
+      <c r="I119">
+        <v>7</v>
       </c>
       <c r="J119" s="6">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41980</v>
+        <v>41971</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C120">
         <v>51</v>
       </c>
       <c r="D120" s="6">
-        <v>38</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E120">
-        <v>37</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="G120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H120">
-        <v>3</v>
-      </c>
-      <c r="I120">
-        <v>5</v>
+      <c r="H120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I120" s="5">
+        <v>6.5</v>
       </c>
       <c r="J120" s="6">
-        <v>7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>42010</v>
+        <v>41980</v>
       </c>
       <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>51</v>
+      </c>
+      <c r="D121" s="6">
+        <v>38</v>
+      </c>
+      <c r="E121">
+        <v>37</v>
+      </c>
+      <c r="F121">
         <v>10</v>
       </c>
-      <c r="C121">
-        <v>50</v>
-      </c>
-      <c r="D121" s="6">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="E121">
-        <v>38.1</v>
-      </c>
-      <c r="F121">
-        <v>7.6</v>
-      </c>
       <c r="G121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H121" t="e">
-        <v>#N/A</v>
+      <c r="H121">
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="J121" s="6">
-        <v>7.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>42012</v>
+        <v>42010</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D122" s="6">
-        <v>42</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E122">
-        <v>37</v>
+        <v>38.1</v>
       </c>
       <c r="F122">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="G122" t="e">
         <v>#N/A</v>
@@ -4376,11 +4377,11 @@
       <c r="H122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I122" t="e">
-        <v>#N/A</v>
+      <c r="I122">
+        <v>6.3</v>
       </c>
       <c r="J122" s="6">
-        <v>14</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4388,19 +4389,19 @@
         <v>42012</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D123" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E123">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G123" t="e">
         <v>#N/A</v>
@@ -4412,27 +4413,27 @@
         <v>#N/A</v>
       </c>
       <c r="J123" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>42022</v>
+        <v>42012</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D124" s="6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E124">
         <v>38</v>
       </c>
       <c r="F124">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G124" t="e">
         <v>#N/A</v>
@@ -4440,31 +4441,31 @@
       <c r="H124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I124">
-        <v>5</v>
+      <c r="I124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J124" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>42024</v>
+        <v>42022</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D125" s="6">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E125">
-        <v>36.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="F125">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="G125" t="e">
         <v>#N/A</v>
@@ -4473,42 +4474,42 @@
         <v>#N/A</v>
       </c>
       <c r="I125">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="J125" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>42032</v>
+        <v>42024</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C126">
         <v>48</v>
       </c>
       <c r="D126" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E126">
-        <v>37</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="G126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H126">
-        <v>2</v>
-      </c>
-      <c r="I126" t="e">
-        <v>#N/A</v>
+      <c r="H126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I126">
+        <v>5.9</v>
       </c>
       <c r="J126" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4516,7 +4517,7 @@
         <v>42032</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>48</v>
@@ -4528,7 +4529,7 @@
         <v>37</v>
       </c>
       <c r="F127">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G127" t="e">
         <v>#N/A</v>
@@ -4536,63 +4537,63 @@
       <c r="H127">
         <v>2</v>
       </c>
-      <c r="I127">
-        <v>4</v>
+      <c r="I127" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J127" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>42033</v>
+        <v>42032</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128">
         <v>48</v>
       </c>
       <c r="D128" s="6">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E128">
-        <v>37.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="F128">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H128" t="e">
-        <v>#N/A</v>
+      <c r="H128">
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="J128" s="6">
-        <v>9.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>42103</v>
+        <v>42033</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D129" s="6">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="E129">
-        <v>39</v>
-      </c>
-      <c r="F129" t="e">
-        <v>#N/A</v>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F129">
+        <v>7.5</v>
       </c>
       <c r="G129" t="e">
         <v>#N/A</v>
@@ -4600,31 +4601,31 @@
       <c r="H129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J129" s="6" t="e">
-        <v>#N/A</v>
+      <c r="I129">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J129" s="6">
+        <v>9.4</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>42145</v>
+        <v>42103</v>
       </c>
       <c r="B130" t="s">
         <v>9</v>
       </c>
       <c r="C130">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D130" s="6">
+        <v>42</v>
+      </c>
+      <c r="E130">
         <v>39</v>
       </c>
-      <c r="E130">
-        <v>40</v>
-      </c>
-      <c r="F130">
-        <v>9</v>
+      <c r="F130" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G130" t="e">
         <v>#N/A</v>
@@ -4635,28 +4636,28 @@
       <c r="I130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J130" s="6">
-        <v>12</v>
+      <c r="J130" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D131" s="6">
-        <v>45.6</v>
+        <v>39</v>
       </c>
       <c r="E131">
-        <v>37.6</v>
+        <v>40</v>
       </c>
       <c r="F131">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G131" t="e">
         <v>#N/A</v>
@@ -4668,91 +4669,91 @@
         <v>#N/A</v>
       </c>
       <c r="J131" s="6">
-        <v>7.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>42217</v>
+        <v>42146</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D132" s="6">
-        <v>41</v>
+        <v>45.6</v>
       </c>
       <c r="E132">
-        <v>36</v>
+        <v>37.6</v>
       </c>
       <c r="F132">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="G132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H132">
-        <v>4</v>
+      <c r="H132" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I132" t="e">
         <v>#N/A</v>
       </c>
       <c r="J132" s="6">
-        <v>6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>42236</v>
+        <v>42217</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C133">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D133" s="6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E133">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H133" t="e">
-        <v>#N/A</v>
+      <c r="H133">
+        <v>4</v>
       </c>
       <c r="I133" t="e">
         <v>#N/A</v>
       </c>
       <c r="J133" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>42246</v>
+        <v>42236</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C134">
         <v>52</v>
       </c>
       <c r="D134" s="6">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="E134">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G134" t="e">
         <v>#N/A</v>
@@ -4764,27 +4765,27 @@
         <v>#N/A</v>
       </c>
       <c r="J134" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D135" s="6">
-        <v>38</v>
+        <v>41.5</v>
       </c>
       <c r="E135">
-        <v>41</v>
+        <v>38.5</v>
       </c>
       <c r="F135">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G135" t="e">
         <v>#N/A</v>
@@ -4796,47 +4797,47 @@
         <v>#N/A</v>
       </c>
       <c r="J135" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>42289</v>
+        <v>42247</v>
       </c>
       <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>53</v>
+      </c>
+      <c r="D136" s="6">
+        <v>38</v>
+      </c>
+      <c r="E136">
+        <v>41</v>
+      </c>
+      <c r="F136">
+        <v>9</v>
+      </c>
+      <c r="G136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J136" s="6">
         <v>12</v>
-      </c>
-      <c r="C136">
-        <v>49</v>
-      </c>
-      <c r="D136" s="6">
-        <v>42</v>
-      </c>
-      <c r="E136">
-        <v>34.5</v>
-      </c>
-      <c r="F136">
-        <v>11.5</v>
-      </c>
-      <c r="G136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H136">
-        <v>4</v>
-      </c>
-      <c r="I136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J136" s="6">
-        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>42292</v>
+        <v>42289</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C137">
         <v>49</v>
@@ -4845,16 +4846,16 @@
         <v>42</v>
       </c>
       <c r="E137">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="G137" t="e">
         <v>#N/A</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I137" t="e">
         <v>#N/A</v>
@@ -4865,19 +4866,19 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>42323</v>
+        <v>42292</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D138" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E138">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F138">
         <v>8</v>
@@ -4885,14 +4886,14 @@
       <c r="G138" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H138" t="e">
-        <v>#N/A</v>
+      <c r="H138">
+        <v>3</v>
       </c>
       <c r="I138" t="e">
         <v>#N/A</v>
       </c>
       <c r="J138" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4900,48 +4901,48 @@
         <v>42323</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D139" s="6">
+        <v>39</v>
+      </c>
+      <c r="E139">
         <v>41</v>
       </c>
-      <c r="E139">
-        <v>39</v>
-      </c>
       <c r="F139">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H139">
-        <v>2</v>
+      <c r="H139" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I139" t="e">
         <v>#N/A</v>
       </c>
       <c r="J139" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>42330</v>
+        <v>42323</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>49</v>
       </c>
       <c r="D140" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E140">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F140">
         <v>9</v>
@@ -4949,83 +4950,83 @@
       <c r="G140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H140" t="e">
-        <v>#N/A</v>
+      <c r="H140">
+        <v>2</v>
       </c>
       <c r="I140" t="e">
         <v>#N/A</v>
       </c>
       <c r="J140" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>42343</v>
+        <v>42330</v>
       </c>
       <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>49</v>
+      </c>
+      <c r="D141" s="6">
+        <v>42</v>
+      </c>
+      <c r="E141">
+        <v>37</v>
+      </c>
+      <c r="F141">
+        <v>9</v>
+      </c>
+      <c r="G141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J141" s="6">
         <v>12</v>
-      </c>
-      <c r="C141">
-        <v>51.5</v>
-      </c>
-      <c r="D141" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="E141">
-        <v>38.5</v>
-      </c>
-      <c r="F141">
-        <v>10</v>
-      </c>
-      <c r="G141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H141">
-        <v>3.5</v>
-      </c>
-      <c r="I141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J141" s="6">
-        <v>7.5</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>42353</v>
+        <v>42343</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C142">
-        <v>53</v>
+        <v>51.5</v>
       </c>
       <c r="D142" s="6">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="E142">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G142" t="e">
         <v>#N/A</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I142" t="e">
         <v>#N/A</v>
       </c>
       <c r="J142" s="6">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>42384</v>
+        <v>42353</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
@@ -5034,74 +5035,74 @@
         <v>53</v>
       </c>
       <c r="D143" s="6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E143">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F143">
+        <v>7</v>
+      </c>
+      <c r="G143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J143" s="6">
         <v>8</v>
-      </c>
-      <c r="G143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
-      <c r="I143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J143" s="6">
-        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>42400</v>
+        <v>42384</v>
       </c>
       <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>53</v>
+      </c>
+      <c r="D144" s="6">
+        <v>39</v>
+      </c>
+      <c r="E144">
+        <v>40</v>
+      </c>
+      <c r="F144">
+        <v>8</v>
+      </c>
+      <c r="G144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J144" s="6">
         <v>12</v>
-      </c>
-      <c r="C144">
-        <v>48</v>
-      </c>
-      <c r="D144" s="6">
-        <v>45.5</v>
-      </c>
-      <c r="E144">
-        <v>36.5</v>
-      </c>
-      <c r="F144">
-        <v>9</v>
-      </c>
-      <c r="G144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H144">
-        <v>3</v>
-      </c>
-      <c r="I144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J144" s="6">
-        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>42411</v>
+        <v>42400</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C145">
         <v>48</v>
       </c>
       <c r="D145" s="6">
-        <v>43</v>
+        <v>45.5</v>
       </c>
       <c r="E145">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="F145">
         <v>9</v>
@@ -5110,194 +5111,194 @@
         <v>#N/A</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="e">
         <v>#N/A</v>
       </c>
       <c r="J145" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>42415</v>
+        <v>42411</v>
       </c>
       <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>48</v>
+      </c>
+      <c r="D146" s="6">
+        <v>43</v>
+      </c>
+      <c r="E146">
+        <v>37</v>
+      </c>
+      <c r="F146">
+        <v>9</v>
+      </c>
+      <c r="G146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H146">
         <v>4</v>
       </c>
-      <c r="C146">
-        <v>52</v>
-      </c>
-      <c r="D146" s="6">
-        <v>40</v>
-      </c>
-      <c r="E146">
-        <v>38</v>
-      </c>
-      <c r="F146">
-        <v>10</v>
-      </c>
-      <c r="G146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H146">
-        <v>2</v>
-      </c>
       <c r="I146" t="e">
         <v>#N/A</v>
       </c>
       <c r="J146" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>42439</v>
+        <v>42415</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D147" s="6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E147">
-        <v>39</v>
-      </c>
-      <c r="F147" t="e">
-        <v>#N/A</v>
+        <v>38</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
       </c>
       <c r="G147" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H147" t="e">
-        <v>#N/A</v>
+      <c r="H147">
+        <v>2</v>
       </c>
       <c r="I147" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J147" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J147" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>42445</v>
+        <v>42439</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D148" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E148">
-        <v>41</v>
-      </c>
-      <c r="F148">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="F148" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H148">
-        <v>2</v>
+      <c r="H148" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J148" s="6">
-        <v>8</v>
+      <c r="J148" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>42459</v>
+        <v>42445</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D149" s="6">
         <v>40</v>
       </c>
       <c r="E149">
-        <v>37.5</v>
+        <v>41</v>
       </c>
       <c r="F149">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G149" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H149" s="4">
-        <v>3.5</v>
+      <c r="H149">
+        <v>2</v>
       </c>
       <c r="I149" t="e">
         <v>#N/A</v>
       </c>
       <c r="J149" s="6">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>42475</v>
+        <v>42459</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C150">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D150" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E150">
-        <v>37</v>
+        <v>37.5</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H150" t="e">
-        <v>#N/A</v>
+      <c r="H150" s="4">
+        <v>3.5</v>
       </c>
       <c r="I150" t="e">
         <v>#N/A</v>
       </c>
       <c r="J150" s="6">
-        <v>12</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>42486</v>
+        <v>42475</v>
       </c>
       <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>49</v>
+      </c>
+      <c r="D151" s="6">
+        <v>41</v>
+      </c>
+      <c r="E151">
+        <v>37</v>
+      </c>
+      <c r="F151">
         <v>10</v>
       </c>
-      <c r="C151">
-        <v>48</v>
-      </c>
-      <c r="D151" s="6">
-        <v>42.8</v>
-      </c>
-      <c r="E151">
-        <v>36.9</v>
-      </c>
-      <c r="F151">
-        <v>10.8</v>
-      </c>
       <c r="G151" t="e">
         <v>#N/A</v>
       </c>
@@ -5308,27 +5309,27 @@
         <v>#N/A</v>
       </c>
       <c r="J151" s="6">
-        <v>9.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>42503</v>
+        <v>42486</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C152">
         <v>48</v>
       </c>
       <c r="D152" s="6">
-        <v>44</v>
+        <v>42.8</v>
       </c>
       <c r="E152">
-        <v>36</v>
+        <v>36.9</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>10.8</v>
       </c>
       <c r="G152" t="e">
         <v>#N/A</v>
@@ -5340,27 +5341,27 @@
         <v>#N/A</v>
       </c>
       <c r="J152" s="6">
-        <v>11</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>42505</v>
+        <v>42503</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C153">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D153" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E153">
-        <v>38</v>
-      </c>
-      <c r="F153" t="e">
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="F153">
+        <v>9</v>
       </c>
       <c r="G153" t="e">
         <v>#N/A</v>
@@ -5371,8 +5372,8 @@
       <c r="I153" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J153" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J153" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,7 +5381,7 @@
         <v>42505</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>51</v>
@@ -5389,80 +5390,80 @@
         <v>40</v>
       </c>
       <c r="E154">
-        <v>37</v>
-      </c>
-      <c r="F154">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="F154" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G154" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H154">
-        <v>3</v>
+      <c r="H154" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I154" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J154" s="6">
-        <v>12</v>
+      <c r="J154" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>42515</v>
+        <v>42505</v>
       </c>
       <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>51</v>
+      </c>
+      <c r="D155" s="6">
+        <v>40</v>
+      </c>
+      <c r="E155">
+        <v>37</v>
+      </c>
+      <c r="F155">
+        <v>8</v>
+      </c>
+      <c r="G155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J155" s="6">
         <v>12</v>
-      </c>
-      <c r="C155">
-        <v>50</v>
-      </c>
-      <c r="D155" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="E155">
-        <v>35.5</v>
-      </c>
-      <c r="F155">
-        <v>10.5</v>
-      </c>
-      <c r="G155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J155" s="6">
-        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>42566</v>
+        <v>42515</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C156">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D156" s="6">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="E156">
-        <v>37</v>
+        <v>35.5</v>
       </c>
       <c r="F156">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="G156" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H156">
-        <v>2</v>
+      <c r="H156" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I156" t="e">
         <v>#N/A</v>
@@ -5473,284 +5474,284 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>42586</v>
+        <v>42566</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C157">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D157" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E157">
-        <v>33</v>
-      </c>
-      <c r="F157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G157">
-        <v>16</v>
-      </c>
-      <c r="H157" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="G157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
       </c>
       <c r="I157" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J157" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J157" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>42597</v>
+        <v>42586</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C158">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D158" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E158">
-        <v>40</v>
-      </c>
-      <c r="F158">
-        <v>9</v>
-      </c>
-      <c r="G158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G158">
+        <v>16</v>
+      </c>
+      <c r="H158" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I158" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J158" s="6">
-        <v>15</v>
+      <c r="J158" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>42602</v>
+        <v>42597</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D159" s="6">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="E159">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="F159">
-        <v>9.5</v>
-      </c>
-      <c r="G159">
-        <v>8.5</v>
-      </c>
-      <c r="H159" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="G159" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
       </c>
       <c r="I159" t="e">
         <v>#N/A</v>
       </c>
       <c r="J159" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>42628</v>
+        <v>42602</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C160">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D160" s="6">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="E160">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="F160">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="G160">
-        <v>10</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
+        <v>8.5</v>
+      </c>
+      <c r="H160" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I160" t="e">
         <v>#N/A</v>
       </c>
       <c r="J160" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>42644</v>
+        <v>42628</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C161">
         <v>52</v>
       </c>
       <c r="D161" s="6">
-        <v>33.5</v>
+        <v>37</v>
       </c>
       <c r="E161">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G161">
-        <v>10.5</v>
-      </c>
-      <c r="H161" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
       </c>
       <c r="I161" t="e">
         <v>#N/A</v>
       </c>
       <c r="J161" s="6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>42658</v>
+        <v>42644</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C162">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D162" s="6">
-        <v>35</v>
+        <v>33.5</v>
       </c>
       <c r="E162">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="F162">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G162">
-        <v>10</v>
-      </c>
-      <c r="H162">
-        <v>2</v>
+        <v>10.5</v>
+      </c>
+      <c r="H162" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I162" t="e">
         <v>#N/A</v>
       </c>
       <c r="J162" s="6">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>42685</v>
+        <v>42658</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C163">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D163" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E163">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F163">
+        <v>9</v>
+      </c>
+      <c r="G163">
+        <v>10</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J163" s="6">
         <v>8</v>
-      </c>
-      <c r="G163">
-        <v>16</v>
-      </c>
-      <c r="H163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J163" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>42689</v>
+        <v>42685</v>
       </c>
       <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>51</v>
+      </c>
+      <c r="D164" s="6">
+        <v>37</v>
+      </c>
+      <c r="E164">
+        <v>35</v>
+      </c>
+      <c r="F164">
+        <v>8</v>
+      </c>
+      <c r="G164">
+        <v>16</v>
+      </c>
+      <c r="H164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J164" s="6">
         <v>4</v>
-      </c>
-      <c r="C164">
-        <v>56</v>
-      </c>
-      <c r="D164" s="6">
-        <v>32</v>
-      </c>
-      <c r="E164">
-        <v>37</v>
-      </c>
-      <c r="F164">
-        <v>10</v>
-      </c>
-      <c r="G164">
-        <v>12</v>
-      </c>
-      <c r="H164">
-        <v>2</v>
-      </c>
-      <c r="I164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J164" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>42719</v>
+        <v>42689</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
       </c>
       <c r="C165">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D165" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E165">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F165">
         <v>10</v>
       </c>
       <c r="G165">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="e">
         <v>#N/A</v>
@@ -5761,34 +5762,34 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>42775</v>
+        <v>42719</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D166" s="6">
+        <v>35</v>
+      </c>
+      <c r="E166">
         <v>33</v>
       </c>
-      <c r="E166">
-        <v>31</v>
-      </c>
       <c r="F166">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G166">
-        <v>23</v>
-      </c>
-      <c r="H166" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
       </c>
       <c r="I166" t="e">
         <v>#N/A</v>
       </c>
       <c r="J166" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5796,22 +5797,22 @@
         <v>42775</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D167" s="6">
-        <v>33.200000000000003</v>
+        <v>33</v>
       </c>
       <c r="E167">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="F167">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G167">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="H167" t="e">
         <v>#N/A</v>
@@ -5820,82 +5821,82 @@
         <v>#N/A</v>
       </c>
       <c r="J167" s="6">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>42781</v>
+        <v>42775</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D168" s="6">
-        <v>31</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E168">
-        <v>35</v>
+        <v>30.9</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G168">
-        <v>15</v>
-      </c>
-      <c r="H168">
-        <v>1</v>
+        <v>22.3</v>
+      </c>
+      <c r="H168" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I168" t="e">
         <v>#N/A</v>
       </c>
       <c r="J168" s="6">
-        <v>8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>42852</v>
+        <v>42781</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D169" s="6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E169">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F169">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G169">
-        <v>17</v>
-      </c>
-      <c r="H169" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
       </c>
       <c r="I169" t="e">
         <v>#N/A</v>
       </c>
       <c r="J169" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>42870</v>
+        <v>42852</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D170" s="6">
         <v>34</v>
@@ -5904,109 +5905,109 @@
         <v>36</v>
       </c>
       <c r="F170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G170">
-        <v>12</v>
-      </c>
-      <c r="H170">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="H170" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I170" t="e">
         <v>#N/A</v>
       </c>
       <c r="J170" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>42888</v>
+        <v>42870</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C171">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D171" s="6">
-        <v>35.299999999999997</v>
+        <v>34</v>
       </c>
       <c r="E171">
-        <v>31.9</v>
+        <v>36</v>
       </c>
       <c r="F171">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G171">
-        <v>17</v>
-      </c>
-      <c r="H171" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
       </c>
       <c r="I171" t="e">
         <v>#N/A</v>
       </c>
       <c r="J171" s="6">
-        <v>6.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>42931</v>
+        <v>42888</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C172">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D172" s="6">
-        <v>34</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E172">
-        <v>34</v>
+        <v>31.9</v>
       </c>
       <c r="F172">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="G172">
-        <v>12</v>
-      </c>
-      <c r="H172">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="H172" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I172" t="e">
         <v>#N/A</v>
       </c>
       <c r="J172" s="6">
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>42951</v>
+        <v>42931</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C173">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D173" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E173">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F173">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G173">
-        <v>15</v>
-      </c>
-      <c r="H173" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
       </c>
       <c r="I173" t="e">
         <v>#N/A</v>
@@ -6017,22 +6018,22 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>42962</v>
+        <v>42951</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C174">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D174" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E174">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F174">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G174">
         <v>15</v>
@@ -6044,7 +6045,7 @@
         <v>#N/A</v>
       </c>
       <c r="J174" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6052,13 +6053,13 @@
         <v>42962</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C175">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D175" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E175">
         <v>37</v>
@@ -6067,39 +6068,39 @@
         <v>8</v>
       </c>
       <c r="G175">
-        <v>14</v>
-      </c>
-      <c r="H175">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="H175" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I175" t="e">
         <v>#N/A</v>
       </c>
       <c r="J175" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>42993</v>
+        <v>42962</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
       </c>
       <c r="C176">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D176" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E176">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G176">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -6108,62 +6109,62 @@
         <v>#N/A</v>
       </c>
       <c r="J176" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43006</v>
+        <v>42993</v>
       </c>
       <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>53</v>
+      </c>
+      <c r="D177" s="6">
+        <v>35</v>
+      </c>
+      <c r="E177">
+        <v>35</v>
+      </c>
+      <c r="F177">
         <v>10</v>
       </c>
-      <c r="C177">
-        <v>48</v>
-      </c>
-      <c r="D177" s="6">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="E177">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F177">
-        <v>8.1</v>
-      </c>
       <c r="G177">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H177" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
       </c>
       <c r="I177" t="e">
         <v>#N/A</v>
       </c>
       <c r="J177" s="6">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43019</v>
+        <v>43006</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C178">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D178" s="6">
-        <v>34</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E178">
-        <v>37</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F178">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="G178">
-        <v>16</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H178" t="e">
         <v>#N/A</v>
@@ -6172,33 +6173,33 @@
         <v>#N/A</v>
       </c>
       <c r="J178" s="6">
-        <v>5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43023</v>
+        <v>43019</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D179" s="6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E179">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F179">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G179">
-        <v>13</v>
-      </c>
-      <c r="H179">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H179" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I179" t="e">
         <v>#N/A</v>
@@ -6209,60 +6210,60 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43041</v>
+        <v>43023</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C180">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D180" s="6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E180">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F180">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G180">
-        <v>18</v>
-      </c>
-      <c r="H180" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
       </c>
       <c r="I180" t="e">
         <v>#N/A</v>
       </c>
       <c r="J180" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43050</v>
+        <v>43041</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C181">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D181" s="6">
         <v>32</v>
       </c>
       <c r="E181">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G181">
-        <v>15</v>
-      </c>
-      <c r="H181">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="H181" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I181" t="e">
         <v>#N/A</v>
@@ -6273,25 +6274,25 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43054</v>
+        <v>43050</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
       </c>
       <c r="C182">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D182" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E182">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F182">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G182">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -6300,94 +6301,94 @@
         <v>#N/A</v>
       </c>
       <c r="J182" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43057</v>
+        <v>43054</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D183" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E183">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F183">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G183">
         <v>17</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183" t="e">
         <v>#N/A</v>
       </c>
       <c r="J183" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43061</v>
+        <v>43057</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C184">
-        <v>52.5</v>
+        <v>51</v>
       </c>
       <c r="D184" s="6">
+        <v>30</v>
+      </c>
+      <c r="E184">
         <v>34</v>
-      </c>
-      <c r="E184">
-        <v>36</v>
       </c>
       <c r="F184">
         <v>10</v>
       </c>
       <c r="G184">
-        <v>13</v>
-      </c>
-      <c r="H184" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="H184">
+        <v>3</v>
       </c>
       <c r="I184" t="e">
         <v>#N/A</v>
       </c>
       <c r="J184" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43063</v>
+        <v>43061</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C185">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="D185" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E185">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F185">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G185">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H185" t="e">
         <v>#N/A</v>
@@ -6401,89 +6402,89 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>43085</v>
+        <v>43063</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C186">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D186" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E186">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F186">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G186">
-        <v>14</v>
-      </c>
-      <c r="H186">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="H186" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I186" t="e">
         <v>#N/A</v>
       </c>
       <c r="J186" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>43139</v>
+        <v>43085</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D187" s="6">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E187">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G187">
-        <v>10</v>
-      </c>
-      <c r="H187" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
       </c>
       <c r="I187" t="e">
         <v>#N/A</v>
       </c>
       <c r="J187" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>43231</v>
+        <v>43139</v>
       </c>
       <c r="B188" t="s">
         <v>9</v>
       </c>
       <c r="C188">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D188" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E188">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F188">
         <v>10</v>
       </c>
       <c r="G188">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H188" t="e">
         <v>#N/A</v>
@@ -6492,30 +6493,30 @@
         <v>#N/A</v>
       </c>
       <c r="J188" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>43321</v>
+        <v>43231</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
       </c>
       <c r="C189">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D189" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E189">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F189">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G189">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H189" t="e">
         <v>#N/A</v>
@@ -6524,24 +6525,24 @@
         <v>#N/A</v>
       </c>
       <c r="J189" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>43414</v>
+        <v>43321</v>
       </c>
       <c r="B190" t="s">
         <v>9</v>
       </c>
       <c r="C190">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D190" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E190">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F190">
         <v>11</v>
@@ -6549,37 +6550,37 @@
       <c r="G190">
         <v>10</v>
       </c>
-      <c r="H190">
-        <v>4</v>
+      <c r="H190" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I190" t="e">
         <v>#N/A</v>
       </c>
       <c r="J190" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>43510</v>
+        <v>43414</v>
       </c>
       <c r="B191" t="s">
         <v>9</v>
       </c>
       <c r="C191">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D191" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E191">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F191">
         <v>11</v>
       </c>
       <c r="G191">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H191">
         <v>4</v>
@@ -6588,62 +6589,62 @@
         <v>#N/A</v>
       </c>
       <c r="J191" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>43706</v>
+        <v>43510</v>
       </c>
       <c r="B192" t="s">
         <v>9</v>
       </c>
       <c r="C192">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D192" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E192">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F192">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G192">
-        <v>13</v>
-      </c>
-      <c r="H192" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="H192">
+        <v>4</v>
       </c>
       <c r="I192" t="e">
         <v>#N/A</v>
       </c>
       <c r="J192" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>43867</v>
+        <v>43706</v>
       </c>
       <c r="B193" t="s">
         <v>9</v>
       </c>
       <c r="C193">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D193" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E193">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F193">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G193">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H193" t="e">
         <v>#N/A</v>
@@ -6652,102 +6653,134 @@
         <v>#N/A</v>
       </c>
       <c r="J193" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>43986</v>
+        <v>43867</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
       </c>
       <c r="C194">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D194" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E194">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F194">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G194">
-        <v>12</v>
-      </c>
-      <c r="H194">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H194" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I194" t="e">
         <v>#N/A</v>
       </c>
       <c r="J194" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>44038</v>
+        <v>43986</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C195">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D195" s="6">
         <v>38</v>
       </c>
       <c r="E195">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F195">
         <v>12</v>
       </c>
       <c r="G195">
-        <v>11</v>
-      </c>
-      <c r="H195" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
       </c>
       <c r="I195" t="e">
         <v>#N/A</v>
       </c>
       <c r="J195" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>44102</v>
+        <v>44038</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D196" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E196">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F196">
         <v>12</v>
       </c>
       <c r="G196">
-        <v>9</v>
-      </c>
-      <c r="H196">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="H196" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I196" t="e">
         <v>#N/A</v>
       </c>
       <c r="J196" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>52</v>
+      </c>
+      <c r="D197" s="6">
+        <v>37</v>
+      </c>
+      <c r="E197">
+        <v>37</v>
+      </c>
+      <c r="F197">
+        <v>12</v>
+      </c>
+      <c r="G197">
+        <v>9</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J197" s="6">
         <v>3</v>
       </c>
     </row>

--- a/python/Data/poll-data-qld.xlsx
+++ b/python/Data/poll-data-qld.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C6F372-7FA8-4046-BE89-F19670FE831C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5449EDBC-808C-4192-837D-D7AD93BEB34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="33540" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13290" yWindow="3795" windowWidth="24255" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="18">
   <si>
     <t>MidDate</t>
   </si>
@@ -85,6 +84,9 @@
   </si>
   <si>
     <t>F2F Morgan</t>
+  </si>
+  <si>
+    <t>Morgan SMS</t>
   </si>
 </sst>
 </file>
@@ -411,12 +413,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U197"/>
+  <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A178" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6784,6 +6786,102 @@
         <v>3</v>
       </c>
     </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>52</v>
+      </c>
+      <c r="D198" s="6">
+        <v>37</v>
+      </c>
+      <c r="E198" s="6">
+        <v>37</v>
+      </c>
+      <c r="F198" s="6">
+        <v>11</v>
+      </c>
+      <c r="G198" s="6">
+        <v>9</v>
+      </c>
+      <c r="H198" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I198" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B199" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199">
+        <v>51</v>
+      </c>
+      <c r="D199" s="6">
+        <v>35</v>
+      </c>
+      <c r="E199" s="6">
+        <v>36</v>
+      </c>
+      <c r="F199" s="6">
+        <v>10</v>
+      </c>
+      <c r="G199" s="6">
+        <v>12</v>
+      </c>
+      <c r="H199" s="6">
+        <v>2</v>
+      </c>
+      <c r="I199" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J199" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>51.5</v>
+      </c>
+      <c r="D200" s="6">
+        <v>36</v>
+      </c>
+      <c r="E200" s="6">
+        <v>37</v>
+      </c>
+      <c r="F200" s="6">
+        <v>11</v>
+      </c>
+      <c r="G200" s="6">
+        <v>10</v>
+      </c>
+      <c r="H200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J200" s="6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/python/Data/poll-data-qld.xlsx
+++ b/python/Data/poll-data-qld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5449EDBC-808C-4192-837D-D7AD93BEB34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06ED82-8E66-4C88-8231-3D87E1A94317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="3795" windowWidth="24255" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="-30" windowWidth="12630" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="18">
   <si>
     <t>MidDate</t>
   </si>
@@ -413,12 +413,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A178" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,22 +1316,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>38967</v>
+        <v>38956</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27" s="6">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>48</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="E27" s="6">
+        <v>52</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2</v>
       </c>
       <c r="G27" t="e">
         <v>#N/A</v>
@@ -1351,19 +1351,19 @@
         <v>38967</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>56.5</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6">
         <v>38</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>48</v>
       </c>
-      <c r="F28" t="e">
-        <v>#N/A</v>
+      <c r="F28">
+        <v>4</v>
       </c>
       <c r="G28" t="e">
         <v>#N/A</v>
@@ -1374,8 +1374,8 @@
       <c r="I28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J28" t="e">
-        <v>#N/A</v>
+      <c r="J28" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1383,22 +1383,22 @@
         <v>38967</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>56.5</v>
       </c>
       <c r="D29" s="6">
-        <v>39</v>
-      </c>
-      <c r="E29">
-        <v>45</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>0.5</v>
+        <v>38</v>
+      </c>
+      <c r="E29" s="6">
+        <v>48</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H29" t="e">
         <v>#N/A</v>
@@ -1406,31 +1406,31 @@
       <c r="I29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J29" s="6">
-        <v>7.5</v>
+      <c r="J29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>39037</v>
+        <v>38967</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F30">
-        <v>12</v>
-      </c>
-      <c r="G30" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
       </c>
       <c r="H30" t="e">
         <v>#N/A</v>
@@ -1439,27 +1439,27 @@
         <v>#N/A</v>
       </c>
       <c r="J30" s="6">
-        <v>11</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>39217</v>
+        <v>39037</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D31" s="6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G31" t="e">
         <v>#N/A</v>
@@ -1471,27 +1471,27 @@
         <v>#N/A</v>
       </c>
       <c r="J31" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>39240</v>
+        <v>39217</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D32" s="6">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G32" t="e">
         <v>#N/A</v>
@@ -1503,27 +1503,27 @@
         <v>#N/A</v>
       </c>
       <c r="J32" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>39309</v>
+        <v>39240</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G33" t="e">
         <v>#N/A</v>
@@ -1535,27 +1535,27 @@
         <v>#N/A</v>
       </c>
       <c r="J33" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>39321</v>
+        <v>39309</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" t="e">
         <v>#N/A</v>
@@ -1567,27 +1567,27 @@
         <v>#N/A</v>
       </c>
       <c r="J34" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>39345</v>
+        <v>39321</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
@@ -1599,27 +1599,27 @@
         <v>#N/A</v>
       </c>
       <c r="J35" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>39401</v>
+        <v>39345</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36" t="e">
         <v>#N/A</v>
@@ -1631,27 +1631,27 @@
         <v>#N/A</v>
       </c>
       <c r="J36" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>39457</v>
+        <v>39401</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D37" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G37" t="e">
         <v>#N/A</v>
@@ -1663,24 +1663,24 @@
         <v>#N/A</v>
       </c>
       <c r="J37" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>39493</v>
+        <v>39457</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -1695,27 +1695,27 @@
         <v>#N/A</v>
       </c>
       <c r="J38" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39505</v>
+        <v>39493</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="6">
         <v>32</v>
       </c>
       <c r="E39">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" t="e">
         <v>#N/A</v>
@@ -1727,27 +1727,27 @@
         <v>#N/A</v>
       </c>
       <c r="J39" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39583</v>
+        <v>39505</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D40" s="6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E40">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" t="e">
         <v>#N/A</v>
@@ -1759,27 +1759,27 @@
         <v>#N/A</v>
       </c>
       <c r="J40" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39618</v>
+        <v>39583</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D41" s="6">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>43</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" t="e">
         <v>#N/A</v>
@@ -1791,27 +1791,27 @@
         <v>#N/A</v>
       </c>
       <c r="J41" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>39661</v>
+        <v>39618</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42">
-        <v>44</v>
-      </c>
-      <c r="F42" t="e">
-        <v>#N/A</v>
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
       </c>
       <c r="G42" t="e">
         <v>#N/A</v>
@@ -1822,28 +1822,28 @@
       <c r="I42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J42" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J42" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>39675</v>
+        <v>39661</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>43</v>
-      </c>
-      <c r="F43">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G43" t="e">
         <v>#N/A</v>
@@ -1854,28 +1854,28 @@
       <c r="I43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J43" s="6">
-        <v>11</v>
+      <c r="J43" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>39719</v>
+        <v>39675</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="6">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
-      <c r="F44" t="e">
-        <v>#N/A</v>
+      <c r="F44">
+        <v>9</v>
       </c>
       <c r="G44" t="e">
         <v>#N/A</v>
@@ -1886,28 +1886,28 @@
       <c r="I44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J44" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J44" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>39767</v>
+        <v>39719</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D45" s="6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E45">
-        <v>45</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G45" t="e">
         <v>#N/A</v>
@@ -1918,28 +1918,28 @@
       <c r="I45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J45" s="6">
-        <v>10</v>
+      <c r="J45" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>39845</v>
+        <v>39767</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="C46">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D46" s="6">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E46">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" t="e">
         <v>#N/A</v>
@@ -1956,22 +1956,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>39876</v>
+        <v>39845</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
       <c r="C47">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D47" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>41</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" t="e">
         <v>#N/A</v>
@@ -1983,27 +1983,27 @@
         <v>#N/A</v>
       </c>
       <c r="J47" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>39891</v>
+        <v>39876</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="D48" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" t="e">
         <v>#N/A</v>
@@ -2015,27 +2015,27 @@
         <v>#N/A</v>
       </c>
       <c r="J48" s="6">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>39983</v>
+        <v>39891</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>49.9</v>
       </c>
       <c r="D49" s="6">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E49">
-        <v>36</v>
-      </c>
-      <c r="F49" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
       </c>
       <c r="G49" t="e">
         <v>#N/A</v>
@@ -2046,28 +2046,28 @@
       <c r="I49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J49" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J49" s="6">
+        <v>8.5</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>40025</v>
+        <v>39983</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D50" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50">
-        <v>30</v>
-      </c>
-      <c r="F50">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G50" t="e">
         <v>#N/A</v>
@@ -2078,28 +2078,28 @@
       <c r="I50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J50" s="6">
-        <v>10</v>
+      <c r="J50" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>40068</v>
+        <v>40025</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D51" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E51">
-        <v>35</v>
-      </c>
-      <c r="F51" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
       </c>
       <c r="G51" t="e">
         <v>#N/A</v>
@@ -2110,28 +2110,28 @@
       <c r="I51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J51" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J51" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>40116</v>
+        <v>40068</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52">
-        <v>45</v>
-      </c>
-      <c r="D52" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F52">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="D52" s="6">
+        <v>43</v>
+      </c>
+      <c r="E52">
+        <v>35</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G52" t="e">
         <v>#N/A</v>
@@ -2148,22 +2148,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>40148</v>
+        <v>40116</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
       <c r="C53">
-        <v>46</v>
-      </c>
-      <c r="D53" s="6">
-        <v>43</v>
-      </c>
-      <c r="E53">
-        <v>34</v>
-      </c>
-      <c r="F53" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="D53" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
       </c>
       <c r="G53" t="e">
         <v>#N/A</v>
@@ -2180,22 +2180,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>40221</v>
+        <v>40148</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D54" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E54">
-        <v>31</v>
-      </c>
-      <c r="F54">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G54" t="e">
         <v>#N/A</v>
@@ -2206,28 +2206,28 @@
       <c r="I54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J54" s="6">
-        <v>8</v>
+      <c r="J54" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>40334</v>
+        <v>40221</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D55" s="6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E55">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G55" t="e">
         <v>#N/A</v>
@@ -2244,22 +2244,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>40428</v>
+        <v>40334</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D56" s="6">
         <v>44</v>
       </c>
       <c r="E56">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G56" t="e">
         <v>#N/A</v>
@@ -2271,27 +2271,27 @@
         <v>#N/A</v>
       </c>
       <c r="J56" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>40452</v>
+        <v>40428</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D57" s="6">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E57">
         <v>29</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G57" t="e">
         <v>#N/A</v>
@@ -2303,27 +2303,27 @@
         <v>#N/A</v>
       </c>
       <c r="J57" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>40497</v>
+        <v>40452</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>41</v>
       </c>
       <c r="D58" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E58">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G58" t="e">
         <v>#N/A</v>
@@ -2335,59 +2335,59 @@
         <v>#N/A</v>
       </c>
       <c r="J58" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>40507</v>
+        <v>40497</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D59" s="6">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F59">
+        <v>13</v>
+      </c>
+      <c r="G59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J59" s="6">
         <v>16</v>
-      </c>
-      <c r="G59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="6">
-        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>40589</v>
+        <v>40507</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D60" s="6">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E60">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" t="e">
         <v>#N/A</v>
@@ -2399,27 +2399,27 @@
         <v>#N/A</v>
       </c>
       <c r="J60" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>40592</v>
+        <v>40589</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D61" s="6">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E61">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G61" t="e">
         <v>#N/A</v>
@@ -2431,12 +2431,12 @@
         <v>#N/A</v>
       </c>
       <c r="J61" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>40627</v>
+        <v>40592</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -2445,13 +2445,13 @@
         <v>45</v>
       </c>
       <c r="D62" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" t="e">
         <v>#N/A</v>
@@ -2468,54 +2468,54 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>40679</v>
+        <v>40627</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D63" s="6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E63">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J63" s="6">
         <v>7</v>
-      </c>
-      <c r="G63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="6">
-        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>40683</v>
+        <v>40679</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D64" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64">
-        <v>30</v>
-      </c>
-      <c r="F64" t="e">
-        <v>#N/A</v>
+        <v>31</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
       </c>
       <c r="G64" t="e">
         <v>#N/A</v>
@@ -2526,28 +2526,28 @@
       <c r="I64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J64" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J64" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>40770</v>
+        <v>40683</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>39</v>
       </c>
       <c r="D65" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E65">
-        <v>27</v>
-      </c>
-      <c r="F65">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G65" t="e">
         <v>#N/A</v>
@@ -2558,28 +2558,28 @@
       <c r="I65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J65" s="6">
-        <v>15</v>
+      <c r="J65" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>40780</v>
+        <v>40770</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D66" s="6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E66">
-        <v>28</v>
-      </c>
-      <c r="F66" t="e">
-        <v>#N/A</v>
+        <v>27</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
       </c>
       <c r="G66" t="e">
         <v>#N/A</v>
@@ -2590,28 +2590,28 @@
       <c r="I66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J66" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J66" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>40862</v>
+        <v>40780</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D67" s="6">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E67">
-        <v>31</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G67" t="e">
         <v>#N/A</v>
@@ -2622,25 +2622,25 @@
       <c r="I67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J67" s="6">
-        <v>15</v>
+      <c r="J67" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>40865</v>
+        <v>40862</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D68" s="6">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E68">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -2648,31 +2648,31 @@
       <c r="G68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H68">
-        <v>4</v>
+      <c r="H68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I68" t="e">
         <v>#N/A</v>
       </c>
       <c r="J68" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>40933</v>
+        <v>40865</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
       <c r="C69">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D69" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E69">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -2687,39 +2687,39 @@
         <v>#N/A</v>
       </c>
       <c r="J69" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>40954</v>
+        <v>40933</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D70" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E70">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H70" t="e">
-        <v>#N/A</v>
+      <c r="H70">
+        <v>4</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
       </c>
       <c r="J70" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2730,164 +2730,164 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D71" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E71">
         <v>30</v>
       </c>
       <c r="F71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H71">
-        <v>5</v>
+      <c r="H71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I71" t="e">
         <v>#N/A</v>
       </c>
       <c r="J71" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>40983</v>
+        <v>40954</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>40</v>
       </c>
       <c r="D72" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E72">
         <v>30</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" t="e">
         <v>#N/A</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I72" t="e">
         <v>#N/A</v>
       </c>
       <c r="J72" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>40989</v>
+        <v>40983</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>39.200000000000003</v>
+        <v>40</v>
       </c>
       <c r="D73" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E73">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J73" s="6">
         <v>6</v>
-      </c>
-      <c r="G73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H73">
-        <v>9</v>
-      </c>
-      <c r="I73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41051</v>
+        <v>40989</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>33</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D74" s="6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E74">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G74" t="e">
         <v>#N/A</v>
       </c>
       <c r="H74">
+        <v>9</v>
+      </c>
+      <c r="I74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J74" s="6">
         <v>7</v>
-      </c>
-      <c r="I74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="6">
-        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>41136</v>
+        <v>41051</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D75" s="6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75" t="e">
         <v>#N/A</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I75" t="e">
         <v>#N/A</v>
       </c>
       <c r="J75" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>41145</v>
+        <v>41136</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>40</v>
@@ -2905,109 +2905,109 @@
         <v>#N/A</v>
       </c>
       <c r="H76">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I76" t="e">
         <v>#N/A</v>
       </c>
       <c r="J76" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>41166</v>
+        <v>41145</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D77" s="6">
-        <v>44.7</v>
+        <v>48</v>
       </c>
       <c r="E77">
-        <v>34.700000000000003</v>
+        <v>30</v>
       </c>
       <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H77">
         <v>7</v>
       </c>
-      <c r="G77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H77">
-        <v>9.4</v>
-      </c>
       <c r="I77" t="e">
         <v>#N/A</v>
       </c>
       <c r="J77" s="6">
-        <v>4.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>41228</v>
+        <v>41166</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" s="6">
-        <v>42</v>
+        <v>44.7</v>
       </c>
       <c r="E78">
-        <v>31</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78" t="e">
         <v>#N/A</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>9.4</v>
       </c>
       <c r="I78" t="e">
         <v>#N/A</v>
       </c>
       <c r="J78" s="6">
-        <v>15</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>41236</v>
+        <v>41228</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D79" s="6">
         <v>42</v>
       </c>
       <c r="E79">
-        <v>34.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="F79">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="G79" t="e">
         <v>#N/A</v>
       </c>
       <c r="H79">
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="I79" t="e">
         <v>#N/A</v>
       </c>
       <c r="J79" s="6">
-        <v>5.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3015,191 +3015,191 @@
         <v>41236</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D80" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E80">
-        <v>33</v>
-      </c>
-      <c r="F80" t="e">
-        <v>#N/A</v>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F80">
+        <v>9.5</v>
       </c>
       <c r="G80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H80" t="e">
-        <v>#N/A</v>
+      <c r="H80">
+        <v>8.9</v>
       </c>
       <c r="I80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J80" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J80" s="6">
+        <v>5.4</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>41244</v>
+        <v>41236</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D81" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E81">
-        <v>35</v>
-      </c>
-      <c r="F81">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="F81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H81">
-        <v>7</v>
+      <c r="H81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J81" s="6">
-        <v>9</v>
+      <c r="J81" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>41257</v>
+        <v>41244</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D82" s="6">
-        <v>41.9</v>
+        <v>41</v>
       </c>
       <c r="E82">
-        <v>32.1</v>
+        <v>35</v>
       </c>
       <c r="F82">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="G82" t="e">
         <v>#N/A</v>
       </c>
       <c r="H82">
-        <v>12.1</v>
+        <v>7</v>
       </c>
       <c r="I82" t="e">
         <v>#N/A</v>
       </c>
       <c r="J82" s="6">
-        <v>5.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>41292</v>
+        <v>41257</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" s="6">
-        <v>42.5</v>
+        <v>41.9</v>
       </c>
       <c r="E83">
-        <v>34.9</v>
+        <v>32.1</v>
       </c>
       <c r="F83">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G83" t="e">
         <v>#N/A</v>
       </c>
       <c r="H83">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
       <c r="I83" t="e">
         <v>#N/A</v>
       </c>
       <c r="J83" s="6">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41320</v>
+        <v>41292</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D84" s="6">
-        <v>49</v>
+        <v>42.5</v>
       </c>
       <c r="E84">
-        <v>27</v>
+        <v>34.9</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="G84" t="e">
         <v>#N/A</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="I84" t="e">
         <v>#N/A</v>
       </c>
       <c r="J84" s="6">
-        <v>15</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>41327</v>
+        <v>41320</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D85" s="6">
-        <v>47.1</v>
+        <v>49</v>
       </c>
       <c r="E85">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="F85">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="G85" t="e">
         <v>#N/A</v>
       </c>
       <c r="H85">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="I85" t="e">
         <v>#N/A</v>
       </c>
       <c r="J85" s="6">
-        <v>3.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3207,159 +3207,159 @@
         <v>41327</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D86" s="6">
-        <v>43</v>
+        <v>47.1</v>
       </c>
       <c r="E86">
-        <v>34</v>
-      </c>
-      <c r="F86" t="e">
-        <v>#N/A</v>
+        <v>28.9</v>
+      </c>
+      <c r="F86">
+        <v>7.9</v>
       </c>
       <c r="G86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H86" t="e">
-        <v>#N/A</v>
+      <c r="H86">
+        <v>11.5</v>
       </c>
       <c r="I86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J86" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J86" s="6">
+        <v>3.6</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>41348</v>
+        <v>41327</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D87" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E87">
-        <v>29</v>
-      </c>
-      <c r="F87">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="F87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H87">
-        <v>7</v>
+      <c r="H87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J87" s="6">
-        <v>9</v>
+      <c r="J87" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>41355</v>
+        <v>41348</v>
       </c>
       <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>42</v>
+      </c>
+      <c r="D88" s="6">
+        <v>45</v>
+      </c>
+      <c r="E88">
+        <v>29</v>
+      </c>
+      <c r="F88">
         <v>10</v>
       </c>
-      <c r="C88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="6">
-        <v>47.8</v>
-      </c>
-      <c r="E88">
-        <v>30.2</v>
-      </c>
-      <c r="F88">
-        <v>8</v>
-      </c>
       <c r="G88" t="e">
         <v>#N/A</v>
       </c>
       <c r="H88">
-        <v>10.1</v>
+        <v>7</v>
       </c>
       <c r="I88" t="e">
         <v>#N/A</v>
       </c>
       <c r="J88" s="6">
-        <v>3.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>41409</v>
+        <v>41355</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="C89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D89" s="6">
-        <v>44</v>
+        <v>47.8</v>
       </c>
       <c r="E89">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G89" t="e">
         <v>#N/A</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="I89" t="e">
         <v>#N/A</v>
       </c>
       <c r="J89" s="6">
-        <v>14</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>41416</v>
+        <v>41409</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D90" s="6">
         <v>44</v>
       </c>
       <c r="E90">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G90" t="e">
         <v>#N/A</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I90" t="e">
         <v>#N/A</v>
       </c>
       <c r="J90" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3367,127 +3367,127 @@
         <v>41416</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>43</v>
       </c>
       <c r="D91" s="6">
-        <v>44.6</v>
+        <v>44</v>
       </c>
       <c r="E91">
-        <v>28.5</v>
+        <v>32</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G91" t="e">
         <v>#N/A</v>
       </c>
       <c r="H91">
-        <v>10.4</v>
+        <v>8</v>
       </c>
       <c r="I91" t="e">
         <v>#N/A</v>
       </c>
       <c r="J91" s="6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>41465</v>
+        <v>41416</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C92">
-        <v>47</v>
+      <c r="C92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D92" s="6">
-        <v>43.3</v>
+        <v>44.6</v>
       </c>
       <c r="E92">
-        <v>37</v>
+        <v>28.5</v>
       </c>
       <c r="F92">
-        <v>5.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="G92" t="e">
         <v>#N/A</v>
       </c>
       <c r="H92">
-        <v>5.7</v>
-      </c>
-      <c r="I92">
-        <v>4.5</v>
+        <v>10.4</v>
+      </c>
+      <c r="I92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J92" s="6">
-        <v>4.4000000000000004</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>41495</v>
+        <v>41465</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D93" s="6">
-        <v>47</v>
+        <v>43.3</v>
       </c>
       <c r="E93">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G93" t="e">
         <v>#N/A</v>
       </c>
       <c r="H93">
-        <v>6</v>
-      </c>
-      <c r="I93" t="e">
-        <v>#N/A</v>
+        <v>5.7</v>
+      </c>
+      <c r="I93">
+        <v>4.5</v>
       </c>
       <c r="J93" s="6">
-        <v>6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>41592</v>
+        <v>41495</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C94">
         <v>43</v>
       </c>
       <c r="D94" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E94">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H94" t="e">
-        <v>#N/A</v>
+      <c r="H94">
+        <v>6</v>
       </c>
       <c r="I94" t="e">
         <v>#N/A</v>
       </c>
       <c r="J94" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>41592</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>43</v>
@@ -3512,31 +3512,31 @@
       <c r="G95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H95">
-        <v>5</v>
+      <c r="H95" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I95" t="e">
         <v>#N/A</v>
       </c>
       <c r="J95" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>41593</v>
+        <v>41592</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C96">
+        <v>43</v>
+      </c>
+      <c r="D96" s="6">
         <v>45</v>
       </c>
-      <c r="D96" s="6">
-        <v>40</v>
-      </c>
       <c r="E96">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -3544,14 +3544,14 @@
       <c r="G96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H96" t="e">
-        <v>#N/A</v>
+      <c r="H96">
+        <v>5</v>
       </c>
       <c r="I96" t="e">
         <v>#N/A</v>
       </c>
       <c r="J96" s="6">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3559,51 +3559,51 @@
         <v>41593</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D97" s="6">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E97">
         <v>32</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
-      <c r="I97">
-        <v>6</v>
+      <c r="H97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J97" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>41623</v>
+        <v>41593</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D98" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E98">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G98" t="e">
         <v>#N/A</v>
@@ -3612,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="I98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J98" s="6">
         <v>6</v>
@@ -3620,22 +3620,22 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>41654</v>
+        <v>41623</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D99" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E99">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G99" t="e">
         <v>#N/A</v>
@@ -3644,56 +3644,56 @@
         <v>3</v>
       </c>
       <c r="I99">
+        <v>9</v>
+      </c>
+      <c r="J99" s="6">
         <v>6</v>
-      </c>
-      <c r="J99" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41679</v>
+        <v>41654</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D100" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E100">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I100" t="e">
-        <v>#N/A</v>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
       </c>
       <c r="J100" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41685</v>
+        <v>41679</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D101" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E101">
         <v>36</v>
@@ -3711,7 +3711,7 @@
         <v>#N/A</v>
       </c>
       <c r="J101" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3719,16 +3719,16 @@
         <v>41685</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D102" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E102">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F102">
         <v>8</v>
@@ -3736,142 +3736,142 @@
       <c r="G102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H102">
-        <v>2</v>
-      </c>
-      <c r="I102">
-        <v>7</v>
+      <c r="H102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J102" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41713</v>
+        <v>41685</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D103" s="6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E103">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>7</v>
       </c>
-      <c r="G103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H103">
-        <v>3</v>
-      </c>
-      <c r="I103">
-        <v>8</v>
-      </c>
       <c r="J103" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41731</v>
+        <v>41713</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="e">
-        <v>#N/A</v>
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>47</v>
       </c>
       <c r="D104" s="6">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="E104">
-        <v>35.1</v>
+        <v>34</v>
       </c>
       <c r="F104">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="G104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H104" t="e">
-        <v>#N/A</v>
+      <c r="H104">
+        <v>3</v>
       </c>
       <c r="I104">
         <v>8</v>
       </c>
       <c r="J104" s="6">
-        <v>10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41744</v>
+        <v>41731</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="C105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D105" s="6">
-        <v>36</v>
+        <v>39.1</v>
       </c>
       <c r="E105">
-        <v>40</v>
+        <v>35.1</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="G105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H105">
-        <v>3</v>
+      <c r="H105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I105">
         <v>8</v>
       </c>
       <c r="J105" s="6">
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41774</v>
+        <v>41744</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D106" s="6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E106">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
         <v>8</v>
       </c>
-      <c r="G106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="J106" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3879,83 +3879,83 @@
         <v>41774</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D107" s="6">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E107">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H107">
-        <v>2</v>
-      </c>
-      <c r="I107">
-        <v>12</v>
+      <c r="H107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I107" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J107" s="6">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41782</v>
+        <v>41774</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D108" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E108">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H108" t="e">
-        <v>#N/A</v>
+      <c r="H108">
+        <v>2</v>
       </c>
       <c r="I108">
+        <v>12</v>
+      </c>
+      <c r="J108" s="6">
         <v>5</v>
-      </c>
-      <c r="J108" s="6">
-        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41795</v>
+        <v>41782</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109">
-        <v>46.4</v>
+        <v>45</v>
       </c>
       <c r="D109" s="6">
-        <v>40.9</v>
+        <v>43</v>
       </c>
       <c r="E109">
         <v>34</v>
       </c>
       <c r="F109">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="G109" t="e">
         <v>#N/A</v>
@@ -3964,30 +3964,30 @@
         <v>#N/A</v>
       </c>
       <c r="I109">
-        <v>13.6</v>
+        <v>5</v>
       </c>
       <c r="J109" s="6">
-        <v>6.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41823</v>
+        <v>41795</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="C110">
-        <v>49</v>
+        <v>46.4</v>
       </c>
       <c r="D110" s="6">
-        <v>38.700000000000003</v>
+        <v>40.9</v>
       </c>
       <c r="E110">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F110">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="G110" t="e">
         <v>#N/A</v>
@@ -3996,27 +3996,27 @@
         <v>#N/A</v>
       </c>
       <c r="I110">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
       <c r="J110" s="6">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41842</v>
+        <v>41823</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
-      <c r="C111" t="e">
-        <v>#N/A</v>
+      <c r="C111">
+        <v>49</v>
       </c>
       <c r="D111" s="6">
-        <v>37.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E111">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F111">
         <v>6.1</v>
@@ -4024,78 +4024,78 @@
       <c r="G111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H111">
-        <v>3.4</v>
+      <c r="H111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I111">
-        <v>13.4</v>
+        <v>15.4</v>
       </c>
       <c r="J111" s="6">
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41858</v>
+        <v>41842</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
-      <c r="C112">
-        <v>48</v>
+      <c r="C112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D112" s="6">
-        <v>34.4</v>
+        <v>37.6</v>
       </c>
       <c r="E112">
-        <v>41</v>
+        <v>34.6</v>
       </c>
       <c r="F112">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="G112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H112" t="e">
-        <v>#N/A</v>
+      <c r="H112">
+        <v>3.4</v>
       </c>
       <c r="I112">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="J112" s="6">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41866</v>
+        <v>41858</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>48</v>
       </c>
       <c r="D113" s="6">
-        <v>39</v>
+        <v>34.4</v>
       </c>
       <c r="E113">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H113">
-        <v>3</v>
+      <c r="H113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I113">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="J113" s="6">
-        <v>3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4103,83 +4103,83 @@
         <v>41866</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C114">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D114" s="6">
         <v>39</v>
       </c>
       <c r="E114">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="e">
-        <v>#N/A</v>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>12</v>
       </c>
       <c r="J114" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41886</v>
+        <v>41866</v>
       </c>
       <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>46</v>
+      </c>
+      <c r="D115" s="6">
+        <v>39</v>
+      </c>
+      <c r="E115">
+        <v>32</v>
+      </c>
+      <c r="F115">
         <v>10</v>
       </c>
-      <c r="C115">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6">
-        <v>41.2</v>
-      </c>
-      <c r="E115">
-        <v>36</v>
-      </c>
-      <c r="F115">
-        <v>6</v>
-      </c>
       <c r="G115" t="e">
         <v>#N/A</v>
       </c>
       <c r="H115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I115">
-        <v>9.5</v>
+      <c r="I115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J115" s="6">
-        <v>7.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41910</v>
+        <v>41886</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C116">
         <v>49</v>
       </c>
       <c r="D116" s="6">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="E116">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="F116">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G116" t="e">
         <v>#N/A</v>
@@ -4188,30 +4188,30 @@
         <v>#N/A</v>
       </c>
       <c r="I116">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="J116" s="6">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41922</v>
+        <v>41910</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C117">
         <v>49</v>
       </c>
       <c r="D117" s="6">
-        <v>40.9</v>
+        <v>42</v>
       </c>
       <c r="E117">
-        <v>36.6</v>
+        <v>35.5</v>
       </c>
       <c r="F117">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="G117" t="e">
         <v>#N/A</v>
@@ -4220,30 +4220,30 @@
         <v>#N/A</v>
       </c>
       <c r="I117">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="J117" s="6">
-        <v>9.3000000000000007</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41958</v>
+        <v>41922</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C118">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D118" s="6">
-        <v>37</v>
+        <v>40.9</v>
       </c>
       <c r="E118">
-        <v>36</v>
+        <v>36.6</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="G118" t="e">
         <v>#N/A</v>
@@ -4251,19 +4251,19 @@
       <c r="H118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I118" t="e">
-        <v>#N/A</v>
+      <c r="I118">
+        <v>7.2</v>
       </c>
       <c r="J118" s="6">
-        <v>17</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41962</v>
+        <v>41958</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>50</v>
@@ -4272,10 +4272,10 @@
         <v>37</v>
       </c>
       <c r="E119">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G119" t="e">
         <v>#N/A</v>
@@ -4283,31 +4283,31 @@
       <c r="H119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I119">
-        <v>7</v>
+      <c r="I119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J119" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41971</v>
+        <v>41962</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D120" s="6">
-        <v>39.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="E120">
-        <v>37.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="F120">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="G120" t="e">
         <v>#N/A</v>
@@ -4315,95 +4315,95 @@
       <c r="H120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I120" s="5">
-        <v>6.5</v>
+      <c r="I120">
+        <v>7</v>
       </c>
       <c r="J120" s="6">
-        <v>9.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41980</v>
+        <v>41971</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C121">
         <v>51</v>
       </c>
       <c r="D121" s="6">
-        <v>38</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E121">
-        <v>37</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="G121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H121">
-        <v>3</v>
-      </c>
-      <c r="I121">
-        <v>5</v>
+      <c r="H121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I121" s="5">
+        <v>6.5</v>
       </c>
       <c r="J121" s="6">
-        <v>7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>42010</v>
+        <v>41980</v>
       </c>
       <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>51</v>
+      </c>
+      <c r="D122" s="6">
+        <v>38</v>
+      </c>
+      <c r="E122">
+        <v>37</v>
+      </c>
+      <c r="F122">
         <v>10</v>
       </c>
-      <c r="C122">
-        <v>50</v>
-      </c>
-      <c r="D122" s="6">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="E122">
-        <v>38.1</v>
-      </c>
-      <c r="F122">
-        <v>7.6</v>
-      </c>
       <c r="G122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H122" t="e">
-        <v>#N/A</v>
+      <c r="H122">
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="J122" s="6">
-        <v>7.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>42012</v>
+        <v>42010</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D123" s="6">
-        <v>42</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E123">
-        <v>37</v>
+        <v>38.1</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="G123" t="e">
         <v>#N/A</v>
@@ -4411,11 +4411,11 @@
       <c r="H123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I123" t="e">
-        <v>#N/A</v>
+      <c r="I123">
+        <v>6.3</v>
       </c>
       <c r="J123" s="6">
-        <v>14</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4423,19 +4423,19 @@
         <v>42012</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D124" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E124">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G124" t="e">
         <v>#N/A</v>
@@ -4447,27 +4447,27 @@
         <v>#N/A</v>
       </c>
       <c r="J124" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>42022</v>
+        <v>42012</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C125">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D125" s="6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E125">
         <v>38</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G125" t="e">
         <v>#N/A</v>
@@ -4475,31 +4475,31 @@
       <c r="H125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I125">
-        <v>5</v>
+      <c r="I125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J125" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>42024</v>
+        <v>42022</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D126" s="6">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E126">
-        <v>36.700000000000003</v>
+        <v>38</v>
       </c>
       <c r="F126">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="G126" t="e">
         <v>#N/A</v>
@@ -4508,42 +4508,42 @@
         <v>#N/A</v>
       </c>
       <c r="I126">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="J126" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>42032</v>
+        <v>42024</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C127">
         <v>48</v>
       </c>
       <c r="D127" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E127">
-        <v>37</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="G127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H127">
-        <v>2</v>
-      </c>
-      <c r="I127" t="e">
-        <v>#N/A</v>
+      <c r="H127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I127">
+        <v>5.9</v>
       </c>
       <c r="J127" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4551,7 +4551,7 @@
         <v>42032</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C128">
         <v>48</v>
@@ -4563,7 +4563,7 @@
         <v>37</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G128" t="e">
         <v>#N/A</v>
@@ -4571,63 +4571,63 @@
       <c r="H128">
         <v>2</v>
       </c>
-      <c r="I128">
-        <v>4</v>
+      <c r="I128" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J128" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>42033</v>
+        <v>42032</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>48</v>
       </c>
       <c r="D129" s="6">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E129">
-        <v>37.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="F129">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H129" t="e">
-        <v>#N/A</v>
+      <c r="H129">
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="J129" s="6">
-        <v>9.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>42103</v>
+        <v>42033</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D130" s="6">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="E130">
-        <v>39</v>
-      </c>
-      <c r="F130" t="e">
-        <v>#N/A</v>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F130">
+        <v>7.5</v>
       </c>
       <c r="G130" t="e">
         <v>#N/A</v>
@@ -4635,31 +4635,31 @@
       <c r="H130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J130" s="6" t="e">
-        <v>#N/A</v>
+      <c r="I130">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J130" s="6">
+        <v>9.4</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>42145</v>
+        <v>42103</v>
       </c>
       <c r="B131" t="s">
         <v>9</v>
       </c>
       <c r="C131">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D131" s="6">
+        <v>42</v>
+      </c>
+      <c r="E131">
         <v>39</v>
       </c>
-      <c r="E131">
-        <v>40</v>
-      </c>
-      <c r="F131">
-        <v>9</v>
+      <c r="F131" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G131" t="e">
         <v>#N/A</v>
@@ -4670,28 +4670,28 @@
       <c r="I131" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J131" s="6">
-        <v>12</v>
+      <c r="J131" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>42146</v>
+        <v>42145</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D132" s="6">
-        <v>45.6</v>
+        <v>39</v>
       </c>
       <c r="E132">
-        <v>37.6</v>
+        <v>40</v>
       </c>
       <c r="F132">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G132" t="e">
         <v>#N/A</v>
@@ -4703,91 +4703,91 @@
         <v>#N/A</v>
       </c>
       <c r="J132" s="6">
-        <v>7.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>42217</v>
+        <v>42146</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C133">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D133" s="6">
-        <v>41</v>
+        <v>45.6</v>
       </c>
       <c r="E133">
-        <v>36</v>
+        <v>37.6</v>
       </c>
       <c r="F133">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="G133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H133">
-        <v>4</v>
+      <c r="H133" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I133" t="e">
         <v>#N/A</v>
       </c>
       <c r="J133" s="6">
-        <v>6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>42236</v>
+        <v>42217</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C134">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D134" s="6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E134">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H134" t="e">
-        <v>#N/A</v>
+      <c r="H134">
+        <v>4</v>
       </c>
       <c r="I134" t="e">
         <v>#N/A</v>
       </c>
       <c r="J134" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>42246</v>
+        <v>42236</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C135">
         <v>52</v>
       </c>
       <c r="D135" s="6">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="E135">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="F135">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G135" t="e">
         <v>#N/A</v>
@@ -4799,27 +4799,27 @@
         <v>#N/A</v>
       </c>
       <c r="J135" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>42247</v>
+        <v>42246</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C136">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D136" s="6">
-        <v>38</v>
+        <v>41.5</v>
       </c>
       <c r="E136">
-        <v>41</v>
+        <v>38.5</v>
       </c>
       <c r="F136">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G136" t="e">
         <v>#N/A</v>
@@ -4831,47 +4831,47 @@
         <v>#N/A</v>
       </c>
       <c r="J136" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>42289</v>
+        <v>42247</v>
       </c>
       <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>53</v>
+      </c>
+      <c r="D137" s="6">
+        <v>38</v>
+      </c>
+      <c r="E137">
+        <v>41</v>
+      </c>
+      <c r="F137">
+        <v>9</v>
+      </c>
+      <c r="G137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J137" s="6">
         <v>12</v>
-      </c>
-      <c r="C137">
-        <v>49</v>
-      </c>
-      <c r="D137" s="6">
-        <v>42</v>
-      </c>
-      <c r="E137">
-        <v>34.5</v>
-      </c>
-      <c r="F137">
-        <v>11.5</v>
-      </c>
-      <c r="G137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H137">
-        <v>4</v>
-      </c>
-      <c r="I137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J137" s="6">
-        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>42292</v>
+        <v>42289</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C138">
         <v>49</v>
@@ -4880,16 +4880,16 @@
         <v>42</v>
       </c>
       <c r="E138">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="F138">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="G138" t="e">
         <v>#N/A</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I138" t="e">
         <v>#N/A</v>
@@ -4900,19 +4900,19 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>42323</v>
+        <v>42292</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D139" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E139">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F139">
         <v>8</v>
@@ -4920,14 +4920,14 @@
       <c r="G139" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H139" t="e">
-        <v>#N/A</v>
+      <c r="H139">
+        <v>3</v>
       </c>
       <c r="I139" t="e">
         <v>#N/A</v>
       </c>
       <c r="J139" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4935,48 +4935,48 @@
         <v>42323</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D140" s="6">
+        <v>39</v>
+      </c>
+      <c r="E140">
         <v>41</v>
       </c>
-      <c r="E140">
-        <v>39</v>
-      </c>
       <c r="F140">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G140" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H140">
-        <v>2</v>
+      <c r="H140" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I140" t="e">
         <v>#N/A</v>
       </c>
       <c r="J140" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>42330</v>
+        <v>42323</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>49</v>
       </c>
       <c r="D141" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E141">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F141">
         <v>9</v>
@@ -4984,83 +4984,83 @@
       <c r="G141" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H141" t="e">
-        <v>#N/A</v>
+      <c r="H141">
+        <v>2</v>
       </c>
       <c r="I141" t="e">
         <v>#N/A</v>
       </c>
       <c r="J141" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>42343</v>
+        <v>42330</v>
       </c>
       <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>49</v>
+      </c>
+      <c r="D142" s="6">
+        <v>42</v>
+      </c>
+      <c r="E142">
+        <v>37</v>
+      </c>
+      <c r="F142">
+        <v>9</v>
+      </c>
+      <c r="G142" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H142" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I142" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J142" s="6">
         <v>12</v>
-      </c>
-      <c r="C142">
-        <v>51.5</v>
-      </c>
-      <c r="D142" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="E142">
-        <v>38.5</v>
-      </c>
-      <c r="F142">
-        <v>10</v>
-      </c>
-      <c r="G142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H142">
-        <v>3.5</v>
-      </c>
-      <c r="I142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J142" s="6">
-        <v>7.5</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>42353</v>
+        <v>42343</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>53</v>
+        <v>51.5</v>
       </c>
       <c r="D143" s="6">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="E143">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G143" t="e">
         <v>#N/A</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I143" t="e">
         <v>#N/A</v>
       </c>
       <c r="J143" s="6">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>42384</v>
+        <v>42353</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -5069,74 +5069,74 @@
         <v>53</v>
       </c>
       <c r="D144" s="6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E144">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F144">
+        <v>7</v>
+      </c>
+      <c r="G144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J144" s="6">
         <v>8</v>
-      </c>
-      <c r="G144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H144">
-        <v>2</v>
-      </c>
-      <c r="I144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J144" s="6">
-        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>42400</v>
+        <v>42384</v>
       </c>
       <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>53</v>
+      </c>
+      <c r="D145" s="6">
+        <v>39</v>
+      </c>
+      <c r="E145">
+        <v>40</v>
+      </c>
+      <c r="F145">
+        <v>8</v>
+      </c>
+      <c r="G145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J145" s="6">
         <v>12</v>
-      </c>
-      <c r="C145">
-        <v>48</v>
-      </c>
-      <c r="D145" s="6">
-        <v>45.5</v>
-      </c>
-      <c r="E145">
-        <v>36.5</v>
-      </c>
-      <c r="F145">
-        <v>9</v>
-      </c>
-      <c r="G145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H145">
-        <v>3</v>
-      </c>
-      <c r="I145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J145" s="6">
-        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>42411</v>
+        <v>42400</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>48</v>
       </c>
       <c r="D146" s="6">
-        <v>43</v>
+        <v>45.5</v>
       </c>
       <c r="E146">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="F146">
         <v>9</v>
@@ -5145,194 +5145,194 @@
         <v>#N/A</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="e">
         <v>#N/A</v>
       </c>
       <c r="J146" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>42415</v>
+        <v>42411</v>
       </c>
       <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>48</v>
+      </c>
+      <c r="D147" s="6">
+        <v>43</v>
+      </c>
+      <c r="E147">
+        <v>37</v>
+      </c>
+      <c r="F147">
+        <v>9</v>
+      </c>
+      <c r="G147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H147">
         <v>4</v>
       </c>
-      <c r="C147">
-        <v>52</v>
-      </c>
-      <c r="D147" s="6">
-        <v>40</v>
-      </c>
-      <c r="E147">
-        <v>38</v>
-      </c>
-      <c r="F147">
-        <v>10</v>
-      </c>
-      <c r="G147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
       <c r="I147" t="e">
         <v>#N/A</v>
       </c>
       <c r="J147" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>42439</v>
+        <v>42415</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D148" s="6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E148">
-        <v>39</v>
-      </c>
-      <c r="F148" t="e">
-        <v>#N/A</v>
+        <v>38</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
       </c>
       <c r="G148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H148" t="e">
-        <v>#N/A</v>
+      <c r="H148">
+        <v>2</v>
       </c>
       <c r="I148" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J148" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J148" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>42445</v>
+        <v>42439</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C149">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D149" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E149">
-        <v>41</v>
-      </c>
-      <c r="F149">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="F149" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G149" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H149">
-        <v>2</v>
+      <c r="H149" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I149" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J149" s="6">
-        <v>8</v>
+      <c r="J149" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>42459</v>
+        <v>42445</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D150" s="6">
         <v>40</v>
       </c>
       <c r="E150">
-        <v>37.5</v>
+        <v>41</v>
       </c>
       <c r="F150">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G150" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H150" s="4">
-        <v>3.5</v>
+      <c r="H150">
+        <v>2</v>
       </c>
       <c r="I150" t="e">
         <v>#N/A</v>
       </c>
       <c r="J150" s="6">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>42475</v>
+        <v>42459</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D151" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E151">
-        <v>37</v>
+        <v>37.5</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="G151" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H151" t="e">
-        <v>#N/A</v>
+      <c r="H151" s="4">
+        <v>3.5</v>
       </c>
       <c r="I151" t="e">
         <v>#N/A</v>
       </c>
       <c r="J151" s="6">
-        <v>12</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>42486</v>
+        <v>42475</v>
       </c>
       <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>49</v>
+      </c>
+      <c r="D152" s="6">
+        <v>41</v>
+      </c>
+      <c r="E152">
+        <v>37</v>
+      </c>
+      <c r="F152">
         <v>10</v>
       </c>
-      <c r="C152">
-        <v>48</v>
-      </c>
-      <c r="D152" s="6">
-        <v>42.8</v>
-      </c>
-      <c r="E152">
-        <v>36.9</v>
-      </c>
-      <c r="F152">
-        <v>10.8</v>
-      </c>
       <c r="G152" t="e">
         <v>#N/A</v>
       </c>
@@ -5343,27 +5343,27 @@
         <v>#N/A</v>
       </c>
       <c r="J152" s="6">
-        <v>9.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>42503</v>
+        <v>42486</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C153">
         <v>48</v>
       </c>
       <c r="D153" s="6">
-        <v>44</v>
+        <v>42.8</v>
       </c>
       <c r="E153">
-        <v>36</v>
+        <v>36.9</v>
       </c>
       <c r="F153">
-        <v>9</v>
+        <v>10.8</v>
       </c>
       <c r="G153" t="e">
         <v>#N/A</v>
@@ -5375,27 +5375,27 @@
         <v>#N/A</v>
       </c>
       <c r="J153" s="6">
-        <v>11</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>42505</v>
+        <v>42503</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C154">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D154" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E154">
-        <v>38</v>
-      </c>
-      <c r="F154" t="e">
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="F154">
+        <v>9</v>
       </c>
       <c r="G154" t="e">
         <v>#N/A</v>
@@ -5406,8 +5406,8 @@
       <c r="I154" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J154" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J154" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5415,7 +5415,7 @@
         <v>42505</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>51</v>
@@ -5424,80 +5424,80 @@
         <v>40</v>
       </c>
       <c r="E155">
-        <v>37</v>
-      </c>
-      <c r="F155">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="F155" t="e">
+        <v>#N/A</v>
       </c>
       <c r="G155" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H155">
-        <v>3</v>
+      <c r="H155" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I155" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J155" s="6">
-        <v>12</v>
+      <c r="J155" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>42515</v>
+        <v>42505</v>
       </c>
       <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>51</v>
+      </c>
+      <c r="D156" s="6">
+        <v>40</v>
+      </c>
+      <c r="E156">
+        <v>37</v>
+      </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="G156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J156" s="6">
         <v>12</v>
-      </c>
-      <c r="C156">
-        <v>50</v>
-      </c>
-      <c r="D156" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="E156">
-        <v>35.5</v>
-      </c>
-      <c r="F156">
-        <v>10.5</v>
-      </c>
-      <c r="G156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J156" s="6">
-        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>42566</v>
+        <v>42515</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C157">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D157" s="6">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="E157">
-        <v>37</v>
+        <v>35.5</v>
       </c>
       <c r="F157">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="G157" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H157">
-        <v>2</v>
+      <c r="H157" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I157" t="e">
         <v>#N/A</v>
@@ -5508,284 +5508,284 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>42586</v>
+        <v>42566</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C158">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D158" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E158">
-        <v>33</v>
-      </c>
-      <c r="F158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G158">
-        <v>16</v>
-      </c>
-      <c r="H158" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+      <c r="G158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
       </c>
       <c r="I158" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J158" s="6" t="e">
-        <v>#N/A</v>
+      <c r="J158" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>42597</v>
+        <v>42586</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C159">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D159" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E159">
-        <v>40</v>
-      </c>
-      <c r="F159">
-        <v>9</v>
-      </c>
-      <c r="G159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F159" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G159">
+        <v>16</v>
+      </c>
+      <c r="H159" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I159" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J159" s="6">
-        <v>15</v>
+      <c r="J159" s="6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>42602</v>
+        <v>42597</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D160" s="6">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="E160">
-        <v>36.5</v>
+        <v>40</v>
       </c>
       <c r="F160">
-        <v>9.5</v>
-      </c>
-      <c r="G160">
-        <v>8.5</v>
-      </c>
-      <c r="H160" t="e">
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="G160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
       </c>
       <c r="I160" t="e">
         <v>#N/A</v>
       </c>
       <c r="J160" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>42628</v>
+        <v>42602</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C161">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D161" s="6">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="E161">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="F161">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="G161">
-        <v>10</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
+        <v>8.5</v>
+      </c>
+      <c r="H161" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I161" t="e">
         <v>#N/A</v>
       </c>
       <c r="J161" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>42644</v>
+        <v>42628</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>52</v>
       </c>
       <c r="D162" s="6">
-        <v>33.5</v>
+        <v>37</v>
       </c>
       <c r="E162">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G162">
-        <v>10.5</v>
-      </c>
-      <c r="H162" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
       </c>
       <c r="I162" t="e">
         <v>#N/A</v>
       </c>
       <c r="J162" s="6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>42658</v>
+        <v>42644</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C163">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D163" s="6">
-        <v>35</v>
+        <v>33.5</v>
       </c>
       <c r="E163">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="F163">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G163">
-        <v>10</v>
-      </c>
-      <c r="H163">
-        <v>2</v>
+        <v>10.5</v>
+      </c>
+      <c r="H163" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I163" t="e">
         <v>#N/A</v>
       </c>
       <c r="J163" s="6">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>42685</v>
+        <v>42658</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D164" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E164">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F164">
+        <v>9</v>
+      </c>
+      <c r="G164">
+        <v>10</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J164" s="6">
         <v>8</v>
-      </c>
-      <c r="G164">
-        <v>16</v>
-      </c>
-      <c r="H164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J164" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>42689</v>
+        <v>42685</v>
       </c>
       <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>51</v>
+      </c>
+      <c r="D165" s="6">
+        <v>37</v>
+      </c>
+      <c r="E165">
+        <v>35</v>
+      </c>
+      <c r="F165">
+        <v>8</v>
+      </c>
+      <c r="G165">
+        <v>16</v>
+      </c>
+      <c r="H165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J165" s="6">
         <v>4</v>
-      </c>
-      <c r="C165">
-        <v>56</v>
-      </c>
-      <c r="D165" s="6">
-        <v>32</v>
-      </c>
-      <c r="E165">
-        <v>37</v>
-      </c>
-      <c r="F165">
-        <v>10</v>
-      </c>
-      <c r="G165">
-        <v>12</v>
-      </c>
-      <c r="H165">
-        <v>2</v>
-      </c>
-      <c r="I165" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J165" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>42719</v>
+        <v>42689</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
       </c>
       <c r="C166">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D166" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E166">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F166">
         <v>10</v>
       </c>
       <c r="G166">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="e">
         <v>#N/A</v>
@@ -5796,34 +5796,34 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>42775</v>
+        <v>42719</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D167" s="6">
+        <v>35</v>
+      </c>
+      <c r="E167">
         <v>33</v>
       </c>
-      <c r="E167">
-        <v>31</v>
-      </c>
       <c r="F167">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G167">
-        <v>23</v>
-      </c>
-      <c r="H167" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
       </c>
       <c r="I167" t="e">
         <v>#N/A</v>
       </c>
       <c r="J167" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5831,22 +5831,22 @@
         <v>42775</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C168">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D168" s="6">
-        <v>33.200000000000003</v>
+        <v>33</v>
       </c>
       <c r="E168">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="F168">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G168">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="H168" t="e">
         <v>#N/A</v>
@@ -5855,82 +5855,82 @@
         <v>#N/A</v>
       </c>
       <c r="J168" s="6">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>42781</v>
+        <v>42775</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C169">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D169" s="6">
-        <v>31</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E169">
-        <v>35</v>
+        <v>30.9</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G169">
-        <v>15</v>
-      </c>
-      <c r="H169">
-        <v>1</v>
+        <v>22.3</v>
+      </c>
+      <c r="H169" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I169" t="e">
         <v>#N/A</v>
       </c>
       <c r="J169" s="6">
-        <v>8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>42852</v>
+        <v>42781</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C170">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D170" s="6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E170">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G170">
-        <v>17</v>
-      </c>
-      <c r="H170" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
       </c>
       <c r="I170" t="e">
         <v>#N/A</v>
       </c>
       <c r="J170" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>42870</v>
+        <v>42852</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C171">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D171" s="6">
         <v>34</v>
@@ -5939,109 +5939,109 @@
         <v>36</v>
       </c>
       <c r="F171">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G171">
-        <v>12</v>
-      </c>
-      <c r="H171">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="H171" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I171" t="e">
         <v>#N/A</v>
       </c>
       <c r="J171" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>42888</v>
+        <v>42870</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C172">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D172" s="6">
-        <v>35.299999999999997</v>
+        <v>34</v>
       </c>
       <c r="E172">
-        <v>31.9</v>
+        <v>36</v>
       </c>
       <c r="F172">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G172">
-        <v>17</v>
-      </c>
-      <c r="H172" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
       </c>
       <c r="I172" t="e">
         <v>#N/A</v>
       </c>
       <c r="J172" s="6">
-        <v>6.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>42931</v>
+        <v>42888</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C173">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D173" s="6">
-        <v>34</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E173">
-        <v>34</v>
+        <v>31.9</v>
       </c>
       <c r="F173">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="G173">
-        <v>12</v>
-      </c>
-      <c r="H173">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="H173" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I173" t="e">
         <v>#N/A</v>
       </c>
       <c r="J173" s="6">
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>42951</v>
+        <v>42931</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C174">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D174" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E174">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G174">
-        <v>15</v>
-      </c>
-      <c r="H174" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
       </c>
       <c r="I174" t="e">
         <v>#N/A</v>
@@ -6052,22 +6052,22 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>42962</v>
+        <v>42951</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C175">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D175" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E175">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G175">
         <v>15</v>
@@ -6079,7 +6079,7 @@
         <v>#N/A</v>
       </c>
       <c r="J175" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6087,13 +6087,13 @@
         <v>42962</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C176">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D176" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E176">
         <v>37</v>
@@ -6102,39 +6102,39 @@
         <v>8</v>
       </c>
       <c r="G176">
-        <v>14</v>
-      </c>
-      <c r="H176">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="H176" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I176" t="e">
         <v>#N/A</v>
       </c>
       <c r="J176" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>42993</v>
+        <v>42962</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
       </c>
       <c r="C177">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D177" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E177">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G177">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -6143,62 +6143,62 @@
         <v>#N/A</v>
       </c>
       <c r="J177" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43006</v>
+        <v>42993</v>
       </c>
       <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>53</v>
+      </c>
+      <c r="D178" s="6">
+        <v>35</v>
+      </c>
+      <c r="E178">
+        <v>35</v>
+      </c>
+      <c r="F178">
         <v>10</v>
       </c>
-      <c r="C178">
-        <v>48</v>
-      </c>
-      <c r="D178" s="6">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="E178">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F178">
-        <v>8.1</v>
-      </c>
       <c r="G178">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H178" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
       </c>
       <c r="I178" t="e">
         <v>#N/A</v>
       </c>
       <c r="J178" s="6">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43019</v>
+        <v>43006</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C179">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D179" s="6">
-        <v>34</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E179">
-        <v>37</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F179">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="G179">
-        <v>16</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H179" t="e">
         <v>#N/A</v>
@@ -6207,33 +6207,33 @@
         <v>#N/A</v>
       </c>
       <c r="J179" s="6">
-        <v>5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43023</v>
+        <v>43019</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C180">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D180" s="6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E180">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F180">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G180">
-        <v>13</v>
-      </c>
-      <c r="H180">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H180" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I180" t="e">
         <v>#N/A</v>
@@ -6244,60 +6244,60 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43041</v>
+        <v>43023</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C181">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D181" s="6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E181">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F181">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G181">
-        <v>18</v>
-      </c>
-      <c r="H181" t="e">
-        <v>#N/A</v>
+        <v>13</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
       </c>
       <c r="I181" t="e">
         <v>#N/A</v>
       </c>
       <c r="J181" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43050</v>
+        <v>43041</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C182">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D182" s="6">
         <v>32</v>
       </c>
       <c r="E182">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F182">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G182">
-        <v>15</v>
-      </c>
-      <c r="H182">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="H182" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I182" t="e">
         <v>#N/A</v>
@@ -6308,25 +6308,25 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43054</v>
+        <v>43050</v>
       </c>
       <c r="B183" t="s">
         <v>4</v>
       </c>
       <c r="C183">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D183" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E183">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F183">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G183">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -6335,94 +6335,94 @@
         <v>#N/A</v>
       </c>
       <c r="J183" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43057</v>
+        <v>43054</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C184">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D184" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E184">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F184">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G184">
         <v>17</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184" t="e">
         <v>#N/A</v>
       </c>
       <c r="J184" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43061</v>
+        <v>43057</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C185">
-        <v>52.5</v>
+        <v>51</v>
       </c>
       <c r="D185" s="6">
+        <v>30</v>
+      </c>
+      <c r="E185">
         <v>34</v>
-      </c>
-      <c r="E185">
-        <v>36</v>
       </c>
       <c r="F185">
         <v>10</v>
       </c>
       <c r="G185">
-        <v>13</v>
-      </c>
-      <c r="H185" t="e">
-        <v>#N/A</v>
+        <v>17</v>
+      </c>
+      <c r="H185">
+        <v>3</v>
       </c>
       <c r="I185" t="e">
         <v>#N/A</v>
       </c>
       <c r="J185" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>43063</v>
+        <v>43061</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="D186" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E186">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F186">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G186">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H186" t="e">
         <v>#N/A</v>
@@ -6436,89 +6436,89 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>43085</v>
+        <v>43063</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C187">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D187" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E187">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F187">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G187">
-        <v>14</v>
-      </c>
-      <c r="H187">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="H187" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I187" t="e">
         <v>#N/A</v>
       </c>
       <c r="J187" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>43139</v>
+        <v>43085</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D188" s="6">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E188">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F188">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G188">
-        <v>10</v>
-      </c>
-      <c r="H188" t="e">
-        <v>#N/A</v>
+        <v>14</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
       </c>
       <c r="I188" t="e">
         <v>#N/A</v>
       </c>
       <c r="J188" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>43231</v>
+        <v>43139</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
       </c>
       <c r="C189">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D189" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E189">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F189">
         <v>10</v>
       </c>
       <c r="G189">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H189" t="e">
         <v>#N/A</v>
@@ -6527,30 +6527,30 @@
         <v>#N/A</v>
       </c>
       <c r="J189" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>43321</v>
+        <v>43231</v>
       </c>
       <c r="B190" t="s">
         <v>9</v>
       </c>
       <c r="C190">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D190" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E190">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F190">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G190">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H190" t="e">
         <v>#N/A</v>
@@ -6559,24 +6559,24 @@
         <v>#N/A</v>
       </c>
       <c r="J190" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>43414</v>
+        <v>43321</v>
       </c>
       <c r="B191" t="s">
         <v>9</v>
       </c>
       <c r="C191">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D191" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E191">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F191">
         <v>11</v>
@@ -6584,37 +6584,37 @@
       <c r="G191">
         <v>10</v>
       </c>
-      <c r="H191">
-        <v>4</v>
+      <c r="H191" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I191" t="e">
         <v>#N/A</v>
       </c>
       <c r="J191" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>43510</v>
+        <v>43414</v>
       </c>
       <c r="B192" t="s">
         <v>9</v>
       </c>
       <c r="C192">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D192" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E192">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F192">
         <v>11</v>
       </c>
       <c r="G192">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H192">
         <v>4</v>
@@ -6623,62 +6623,62 @@
         <v>#N/A</v>
       </c>
       <c r="J192" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>43706</v>
+        <v>43510</v>
       </c>
       <c r="B193" t="s">
         <v>9</v>
       </c>
       <c r="C193">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D193" s="6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E193">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F193">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G193">
-        <v>13</v>
-      </c>
-      <c r="H193" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
       </c>
       <c r="I193" t="e">
         <v>#N/A</v>
       </c>
       <c r="J193" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>43867</v>
+        <v>43706</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
       </c>
       <c r="C194">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D194" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E194">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G194">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H194" t="e">
         <v>#N/A</v>
@@ -6687,111 +6687,111 @@
         <v>#N/A</v>
       </c>
       <c r="J194" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>43986</v>
+        <v>43867</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
       </c>
       <c r="C195">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D195" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E195">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F195">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G195">
-        <v>12</v>
-      </c>
-      <c r="H195">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H195" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I195" t="e">
         <v>#N/A</v>
       </c>
       <c r="J195" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>44038</v>
+        <v>43986</v>
       </c>
       <c r="B196" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C196">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D196" s="6">
         <v>38</v>
       </c>
       <c r="E196">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F196">
         <v>12</v>
       </c>
       <c r="G196">
-        <v>11</v>
-      </c>
-      <c r="H196" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
       </c>
       <c r="I196" t="e">
         <v>#N/A</v>
       </c>
       <c r="J196" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>44102</v>
+        <v>44038</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D197" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E197">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F197">
         <v>12</v>
       </c>
       <c r="G197">
-        <v>9</v>
-      </c>
-      <c r="H197">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="H197" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I197" t="e">
         <v>#N/A</v>
       </c>
       <c r="J197" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>44116</v>
+        <v>44102</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C198">
         <v>52</v>
@@ -6799,86 +6799,118 @@
       <c r="D198" s="6">
         <v>37</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198">
         <v>37</v>
       </c>
-      <c r="F198" s="6">
-        <v>11</v>
-      </c>
-      <c r="G198" s="6">
-        <v>9</v>
-      </c>
-      <c r="H198" t="e">
-        <v>#N/A</v>
+      <c r="F198">
+        <v>12</v>
+      </c>
+      <c r="G198">
+        <v>9</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
       </c>
       <c r="I198" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J198">
-        <v>6</v>
+      <c r="J198" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>44125</v>
+        <v>44116</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D199" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E199" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F199" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G199" s="6">
-        <v>12</v>
-      </c>
-      <c r="H199" s="6">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="H199" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I199" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J199" s="6">
-        <v>4.5</v>
+      <c r="J199">
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200">
+        <v>51</v>
+      </c>
+      <c r="D200" s="6">
+        <v>35</v>
+      </c>
+      <c r="E200" s="6">
+        <v>36</v>
+      </c>
+      <c r="F200" s="6">
+        <v>10</v>
+      </c>
+      <c r="G200" s="6">
+        <v>12</v>
+      </c>
+      <c r="H200" s="6">
+        <v>2</v>
+      </c>
+      <c r="I200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J200" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>44132</v>
       </c>
-      <c r="B200" t="s">
-        <v>2</v>
-      </c>
-      <c r="C200">
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201">
         <v>51.5</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D201" s="6">
         <v>36</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E201" s="6">
         <v>37</v>
       </c>
-      <c r="F200" s="6">
+      <c r="F201" s="6">
         <v>11</v>
       </c>
-      <c r="G200" s="6">
+      <c r="G201" s="6">
         <v>10</v>
       </c>
-      <c r="H200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J200" s="6">
+      <c r="H201" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I201" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J201" s="6">
         <v>6</v>
       </c>
     </row>
